--- a/Assignments/Final Project/Final Project - Templates - eCare.xlsx
+++ b/Assignments/Final Project/Final Project - Templates - eCare.xlsx
@@ -1,36 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fmcna-my.sharepoint.com/personal/medi_servat_fmc-na_com/Documents/MY WORKSTUFF_On_OneDrive/NU_QA/NU Fall 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvyan/Desktop/INFO-6255/Assignments/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{C0817A1E-E801-48FD-AC6E-58E37135F73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A9CAB29-4027-4006-A17C-E2EA154B963B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B26213-2DCB-B544-B3BC-DCDAD17E62F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="1020" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRD- Clinicals System" sheetId="16" r:id="rId1"/>
     <sheet name="FSD Clinicals System" sheetId="17" r:id="rId2"/>
-    <sheet name="Test Condition Matrix-C" sheetId="12" r:id="rId3"/>
-    <sheet name="Test scenarios &amp; Cases (3)" sheetId="18" r:id="rId4"/>
-    <sheet name="Traceability matrix" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId3"/>
+    <sheet name="Test Condition Matrix-C" sheetId="12" r:id="rId4"/>
+    <sheet name="Test scenarios &amp; Cases (3)" sheetId="18" r:id="rId5"/>
+    <sheet name="Traceability matrix" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Test Condition Matrix-C'!$A$5:$M$15</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Test Condition Matrix-C'!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Test Condition Matrix-C'!$A$5:$M$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Test Condition Matrix-C'!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
   <si>
     <t>Expected Results</t>
   </si>
@@ -1320,13 +1319,70 @@
   </si>
   <si>
     <t>eCare System - Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Partitioning and equivalence</t>
+  </si>
+  <si>
+    <t>ne w/existing</t>
+  </si>
+  <si>
+    <t>clinical clearance flag</t>
+  </si>
+  <si>
+    <t>insurance type</t>
+  </si>
+  <si>
+    <t>drug type</t>
+  </si>
+  <si>
+    <t>transfer to EMR</t>
+  </si>
+  <si>
+    <t>Lab order sent</t>
+  </si>
+  <si>
+    <t>labs sent back</t>
+  </si>
+  <si>
+    <t>admission successfully</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>m -&gt; h; c -&gt; x</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,6 +1548,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1787,9 +1850,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1917,6 +1977,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1926,14 +1994,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2236,16 +2297,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6527029</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>577273</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>41563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>10006</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180109</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>173718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2268,8 +2329,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8508229" y="491836"/>
-          <a:ext cx="7967904" cy="4481946"/>
+          <a:off x="10056091" y="503381"/>
+          <a:ext cx="8138006" cy="3838246"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2629,23 +2690,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D213E52D-A814-4C16-A1BC-57F5A645BD16}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="30" customWidth="1"/>
     <col min="2" max="2" width="105.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="55"/>
-    </row>
-    <row r="3" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="54"/>
+    </row>
+    <row r="3" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>34</v>
       </c>
@@ -2653,11 +2714,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="25"/>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>35</v>
       </c>
@@ -2665,7 +2726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>71</v>
       </c>
@@ -2673,41 +2734,41 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
       <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
       <c r="B9" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
       <c r="B11" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>72</v>
       </c>
@@ -2715,41 +2776,41 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="83" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="18"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>73</v>
       </c>
@@ -2757,17 +2818,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>74</v>
       </c>
@@ -2775,13 +2836,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
     </row>
   </sheetData>
@@ -2795,259 +2856,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153C5160-88B1-485A-8D14-3F08DC628AC2}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="95.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="57"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="56"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="58"/>
       <c r="B4" s="18"/>
     </row>
-    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18"/>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="18"/>
     </row>
-    <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
       <c r="B10" s="18"/>
     </row>
-    <row r="11" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+    <row r="17" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="61" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="62" t="s">
+    <row r="20" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+    <row r="21" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+    <row r="23" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="61" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
+    <row r="24" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="18"/>
     </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+    <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+    <row r="28" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="18"/>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="18"/>
     </row>
-    <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+    <row r="30" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
+    <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="61"/>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="58" t="s">
+    <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A33" s="57" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="18"/>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="18"/>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+    <row r="35" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
     </row>
   </sheetData>
@@ -3059,1073 +3120,1309 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0D1B91-DFA2-7A46-B37E-3A16EF8DB17E}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB40CCBF-A42A-4868-A2E5-142585051FED}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q676"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="13" customWidth="1"/>
     <col min="3" max="4" width="26" style="15" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="15" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="15" customWidth="1"/>
     <col min="8" max="8" width="41.6640625" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="15" customWidth="1"/>
     <col min="10" max="16" width="26.6640625" style="15" customWidth="1"/>
     <col min="17" max="258" width="30.6640625" style="15"/>
-    <col min="259" max="259" width="17.5546875" style="15" customWidth="1"/>
+    <col min="259" max="259" width="17.5" style="15" customWidth="1"/>
     <col min="260" max="260" width="23.33203125" style="15" customWidth="1"/>
     <col min="261" max="261" width="18.6640625" style="15" customWidth="1"/>
     <col min="262" max="262" width="34.6640625" style="15" customWidth="1"/>
     <col min="263" max="263" width="20" style="15" customWidth="1"/>
     <col min="264" max="264" width="41.6640625" style="15" customWidth="1"/>
-    <col min="265" max="265" width="22.44140625" style="15" customWidth="1"/>
+    <col min="265" max="265" width="22.5" style="15" customWidth="1"/>
     <col min="266" max="266" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="268" max="268" width="12.33203125" style="15" customWidth="1"/>
-    <col min="269" max="269" width="17.109375" style="15" customWidth="1"/>
+    <col min="269" max="269" width="17.1640625" style="15" customWidth="1"/>
     <col min="270" max="270" width="17.6640625" style="15" customWidth="1"/>
-    <col min="271" max="271" width="24.44140625" style="15" customWidth="1"/>
-    <col min="272" max="272" width="10.44140625" style="15" customWidth="1"/>
+    <col min="271" max="271" width="24.5" style="15" customWidth="1"/>
+    <col min="272" max="272" width="10.5" style="15" customWidth="1"/>
     <col min="273" max="514" width="30.6640625" style="15"/>
-    <col min="515" max="515" width="17.5546875" style="15" customWidth="1"/>
+    <col min="515" max="515" width="17.5" style="15" customWidth="1"/>
     <col min="516" max="516" width="23.33203125" style="15" customWidth="1"/>
     <col min="517" max="517" width="18.6640625" style="15" customWidth="1"/>
     <col min="518" max="518" width="34.6640625" style="15" customWidth="1"/>
     <col min="519" max="519" width="20" style="15" customWidth="1"/>
     <col min="520" max="520" width="41.6640625" style="15" customWidth="1"/>
-    <col min="521" max="521" width="22.44140625" style="15" customWidth="1"/>
+    <col min="521" max="521" width="22.5" style="15" customWidth="1"/>
     <col min="522" max="522" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="523" max="523" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="524" max="524" width="12.33203125" style="15" customWidth="1"/>
-    <col min="525" max="525" width="17.109375" style="15" customWidth="1"/>
+    <col min="525" max="525" width="17.1640625" style="15" customWidth="1"/>
     <col min="526" max="526" width="17.6640625" style="15" customWidth="1"/>
-    <col min="527" max="527" width="24.44140625" style="15" customWidth="1"/>
-    <col min="528" max="528" width="10.44140625" style="15" customWidth="1"/>
+    <col min="527" max="527" width="24.5" style="15" customWidth="1"/>
+    <col min="528" max="528" width="10.5" style="15" customWidth="1"/>
     <col min="529" max="770" width="30.6640625" style="15"/>
-    <col min="771" max="771" width="17.5546875" style="15" customWidth="1"/>
+    <col min="771" max="771" width="17.5" style="15" customWidth="1"/>
     <col min="772" max="772" width="23.33203125" style="15" customWidth="1"/>
     <col min="773" max="773" width="18.6640625" style="15" customWidth="1"/>
     <col min="774" max="774" width="34.6640625" style="15" customWidth="1"/>
     <col min="775" max="775" width="20" style="15" customWidth="1"/>
     <col min="776" max="776" width="41.6640625" style="15" customWidth="1"/>
-    <col min="777" max="777" width="22.44140625" style="15" customWidth="1"/>
+    <col min="777" max="777" width="22.5" style="15" customWidth="1"/>
     <col min="778" max="778" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="779" max="779" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="780" max="780" width="12.33203125" style="15" customWidth="1"/>
-    <col min="781" max="781" width="17.109375" style="15" customWidth="1"/>
+    <col min="781" max="781" width="17.1640625" style="15" customWidth="1"/>
     <col min="782" max="782" width="17.6640625" style="15" customWidth="1"/>
-    <col min="783" max="783" width="24.44140625" style="15" customWidth="1"/>
-    <col min="784" max="784" width="10.44140625" style="15" customWidth="1"/>
+    <col min="783" max="783" width="24.5" style="15" customWidth="1"/>
+    <col min="784" max="784" width="10.5" style="15" customWidth="1"/>
     <col min="785" max="1026" width="30.6640625" style="15"/>
-    <col min="1027" max="1027" width="17.5546875" style="15" customWidth="1"/>
+    <col min="1027" max="1027" width="17.5" style="15" customWidth="1"/>
     <col min="1028" max="1028" width="23.33203125" style="15" customWidth="1"/>
     <col min="1029" max="1029" width="18.6640625" style="15" customWidth="1"/>
     <col min="1030" max="1030" width="34.6640625" style="15" customWidth="1"/>
     <col min="1031" max="1031" width="20" style="15" customWidth="1"/>
     <col min="1032" max="1032" width="41.6640625" style="15" customWidth="1"/>
-    <col min="1033" max="1033" width="22.44140625" style="15" customWidth="1"/>
+    <col min="1033" max="1033" width="22.5" style="15" customWidth="1"/>
     <col min="1034" max="1034" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="1035" max="1035" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="1036" max="1036" width="12.33203125" style="15" customWidth="1"/>
-    <col min="1037" max="1037" width="17.109375" style="15" customWidth="1"/>
+    <col min="1037" max="1037" width="17.1640625" style="15" customWidth="1"/>
     <col min="1038" max="1038" width="17.6640625" style="15" customWidth="1"/>
-    <col min="1039" max="1039" width="24.44140625" style="15" customWidth="1"/>
-    <col min="1040" max="1040" width="10.44140625" style="15" customWidth="1"/>
+    <col min="1039" max="1039" width="24.5" style="15" customWidth="1"/>
+    <col min="1040" max="1040" width="10.5" style="15" customWidth="1"/>
     <col min="1041" max="1282" width="30.6640625" style="15"/>
-    <col min="1283" max="1283" width="17.5546875" style="15" customWidth="1"/>
+    <col min="1283" max="1283" width="17.5" style="15" customWidth="1"/>
     <col min="1284" max="1284" width="23.33203125" style="15" customWidth="1"/>
     <col min="1285" max="1285" width="18.6640625" style="15" customWidth="1"/>
     <col min="1286" max="1286" width="34.6640625" style="15" customWidth="1"/>
     <col min="1287" max="1287" width="20" style="15" customWidth="1"/>
     <col min="1288" max="1288" width="41.6640625" style="15" customWidth="1"/>
-    <col min="1289" max="1289" width="22.44140625" style="15" customWidth="1"/>
+    <col min="1289" max="1289" width="22.5" style="15" customWidth="1"/>
     <col min="1290" max="1290" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="1291" max="1291" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="1292" max="1292" width="12.33203125" style="15" customWidth="1"/>
-    <col min="1293" max="1293" width="17.109375" style="15" customWidth="1"/>
+    <col min="1293" max="1293" width="17.1640625" style="15" customWidth="1"/>
     <col min="1294" max="1294" width="17.6640625" style="15" customWidth="1"/>
-    <col min="1295" max="1295" width="24.44140625" style="15" customWidth="1"/>
-    <col min="1296" max="1296" width="10.44140625" style="15" customWidth="1"/>
+    <col min="1295" max="1295" width="24.5" style="15" customWidth="1"/>
+    <col min="1296" max="1296" width="10.5" style="15" customWidth="1"/>
     <col min="1297" max="1538" width="30.6640625" style="15"/>
-    <col min="1539" max="1539" width="17.5546875" style="15" customWidth="1"/>
+    <col min="1539" max="1539" width="17.5" style="15" customWidth="1"/>
     <col min="1540" max="1540" width="23.33203125" style="15" customWidth="1"/>
     <col min="1541" max="1541" width="18.6640625" style="15" customWidth="1"/>
     <col min="1542" max="1542" width="34.6640625" style="15" customWidth="1"/>
     <col min="1543" max="1543" width="20" style="15" customWidth="1"/>
     <col min="1544" max="1544" width="41.6640625" style="15" customWidth="1"/>
-    <col min="1545" max="1545" width="22.44140625" style="15" customWidth="1"/>
+    <col min="1545" max="1545" width="22.5" style="15" customWidth="1"/>
     <col min="1546" max="1546" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="1547" max="1547" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="1548" max="1548" width="12.33203125" style="15" customWidth="1"/>
-    <col min="1549" max="1549" width="17.109375" style="15" customWidth="1"/>
+    <col min="1549" max="1549" width="17.1640625" style="15" customWidth="1"/>
     <col min="1550" max="1550" width="17.6640625" style="15" customWidth="1"/>
-    <col min="1551" max="1551" width="24.44140625" style="15" customWidth="1"/>
-    <col min="1552" max="1552" width="10.44140625" style="15" customWidth="1"/>
+    <col min="1551" max="1551" width="24.5" style="15" customWidth="1"/>
+    <col min="1552" max="1552" width="10.5" style="15" customWidth="1"/>
     <col min="1553" max="1794" width="30.6640625" style="15"/>
-    <col min="1795" max="1795" width="17.5546875" style="15" customWidth="1"/>
+    <col min="1795" max="1795" width="17.5" style="15" customWidth="1"/>
     <col min="1796" max="1796" width="23.33203125" style="15" customWidth="1"/>
     <col min="1797" max="1797" width="18.6640625" style="15" customWidth="1"/>
     <col min="1798" max="1798" width="34.6640625" style="15" customWidth="1"/>
     <col min="1799" max="1799" width="20" style="15" customWidth="1"/>
     <col min="1800" max="1800" width="41.6640625" style="15" customWidth="1"/>
-    <col min="1801" max="1801" width="22.44140625" style="15" customWidth="1"/>
+    <col min="1801" max="1801" width="22.5" style="15" customWidth="1"/>
     <col min="1802" max="1802" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="1803" max="1803" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="1804" max="1804" width="12.33203125" style="15" customWidth="1"/>
-    <col min="1805" max="1805" width="17.109375" style="15" customWidth="1"/>
+    <col min="1805" max="1805" width="17.1640625" style="15" customWidth="1"/>
     <col min="1806" max="1806" width="17.6640625" style="15" customWidth="1"/>
-    <col min="1807" max="1807" width="24.44140625" style="15" customWidth="1"/>
-    <col min="1808" max="1808" width="10.44140625" style="15" customWidth="1"/>
+    <col min="1807" max="1807" width="24.5" style="15" customWidth="1"/>
+    <col min="1808" max="1808" width="10.5" style="15" customWidth="1"/>
     <col min="1809" max="2050" width="30.6640625" style="15"/>
-    <col min="2051" max="2051" width="17.5546875" style="15" customWidth="1"/>
+    <col min="2051" max="2051" width="17.5" style="15" customWidth="1"/>
     <col min="2052" max="2052" width="23.33203125" style="15" customWidth="1"/>
     <col min="2053" max="2053" width="18.6640625" style="15" customWidth="1"/>
     <col min="2054" max="2054" width="34.6640625" style="15" customWidth="1"/>
     <col min="2055" max="2055" width="20" style="15" customWidth="1"/>
     <col min="2056" max="2056" width="41.6640625" style="15" customWidth="1"/>
-    <col min="2057" max="2057" width="22.44140625" style="15" customWidth="1"/>
+    <col min="2057" max="2057" width="22.5" style="15" customWidth="1"/>
     <col min="2058" max="2058" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2059" max="2059" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2060" max="2060" width="12.33203125" style="15" customWidth="1"/>
-    <col min="2061" max="2061" width="17.109375" style="15" customWidth="1"/>
+    <col min="2061" max="2061" width="17.1640625" style="15" customWidth="1"/>
     <col min="2062" max="2062" width="17.6640625" style="15" customWidth="1"/>
-    <col min="2063" max="2063" width="24.44140625" style="15" customWidth="1"/>
-    <col min="2064" max="2064" width="10.44140625" style="15" customWidth="1"/>
+    <col min="2063" max="2063" width="24.5" style="15" customWidth="1"/>
+    <col min="2064" max="2064" width="10.5" style="15" customWidth="1"/>
     <col min="2065" max="2306" width="30.6640625" style="15"/>
-    <col min="2307" max="2307" width="17.5546875" style="15" customWidth="1"/>
+    <col min="2307" max="2307" width="17.5" style="15" customWidth="1"/>
     <col min="2308" max="2308" width="23.33203125" style="15" customWidth="1"/>
     <col min="2309" max="2309" width="18.6640625" style="15" customWidth="1"/>
     <col min="2310" max="2310" width="34.6640625" style="15" customWidth="1"/>
     <col min="2311" max="2311" width="20" style="15" customWidth="1"/>
     <col min="2312" max="2312" width="41.6640625" style="15" customWidth="1"/>
-    <col min="2313" max="2313" width="22.44140625" style="15" customWidth="1"/>
+    <col min="2313" max="2313" width="22.5" style="15" customWidth="1"/>
     <col min="2314" max="2314" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2315" max="2315" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2316" max="2316" width="12.33203125" style="15" customWidth="1"/>
-    <col min="2317" max="2317" width="17.109375" style="15" customWidth="1"/>
+    <col min="2317" max="2317" width="17.1640625" style="15" customWidth="1"/>
     <col min="2318" max="2318" width="17.6640625" style="15" customWidth="1"/>
-    <col min="2319" max="2319" width="24.44140625" style="15" customWidth="1"/>
-    <col min="2320" max="2320" width="10.44140625" style="15" customWidth="1"/>
+    <col min="2319" max="2319" width="24.5" style="15" customWidth="1"/>
+    <col min="2320" max="2320" width="10.5" style="15" customWidth="1"/>
     <col min="2321" max="2562" width="30.6640625" style="15"/>
-    <col min="2563" max="2563" width="17.5546875" style="15" customWidth="1"/>
+    <col min="2563" max="2563" width="17.5" style="15" customWidth="1"/>
     <col min="2564" max="2564" width="23.33203125" style="15" customWidth="1"/>
     <col min="2565" max="2565" width="18.6640625" style="15" customWidth="1"/>
     <col min="2566" max="2566" width="34.6640625" style="15" customWidth="1"/>
     <col min="2567" max="2567" width="20" style="15" customWidth="1"/>
     <col min="2568" max="2568" width="41.6640625" style="15" customWidth="1"/>
-    <col min="2569" max="2569" width="22.44140625" style="15" customWidth="1"/>
+    <col min="2569" max="2569" width="22.5" style="15" customWidth="1"/>
     <col min="2570" max="2570" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2571" max="2571" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2572" max="2572" width="12.33203125" style="15" customWidth="1"/>
-    <col min="2573" max="2573" width="17.109375" style="15" customWidth="1"/>
+    <col min="2573" max="2573" width="17.1640625" style="15" customWidth="1"/>
     <col min="2574" max="2574" width="17.6640625" style="15" customWidth="1"/>
-    <col min="2575" max="2575" width="24.44140625" style="15" customWidth="1"/>
-    <col min="2576" max="2576" width="10.44140625" style="15" customWidth="1"/>
+    <col min="2575" max="2575" width="24.5" style="15" customWidth="1"/>
+    <col min="2576" max="2576" width="10.5" style="15" customWidth="1"/>
     <col min="2577" max="2818" width="30.6640625" style="15"/>
-    <col min="2819" max="2819" width="17.5546875" style="15" customWidth="1"/>
+    <col min="2819" max="2819" width="17.5" style="15" customWidth="1"/>
     <col min="2820" max="2820" width="23.33203125" style="15" customWidth="1"/>
     <col min="2821" max="2821" width="18.6640625" style="15" customWidth="1"/>
     <col min="2822" max="2822" width="34.6640625" style="15" customWidth="1"/>
     <col min="2823" max="2823" width="20" style="15" customWidth="1"/>
     <col min="2824" max="2824" width="41.6640625" style="15" customWidth="1"/>
-    <col min="2825" max="2825" width="22.44140625" style="15" customWidth="1"/>
+    <col min="2825" max="2825" width="22.5" style="15" customWidth="1"/>
     <col min="2826" max="2826" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2827" max="2827" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2828" max="2828" width="12.33203125" style="15" customWidth="1"/>
-    <col min="2829" max="2829" width="17.109375" style="15" customWidth="1"/>
+    <col min="2829" max="2829" width="17.1640625" style="15" customWidth="1"/>
     <col min="2830" max="2830" width="17.6640625" style="15" customWidth="1"/>
-    <col min="2831" max="2831" width="24.44140625" style="15" customWidth="1"/>
-    <col min="2832" max="2832" width="10.44140625" style="15" customWidth="1"/>
+    <col min="2831" max="2831" width="24.5" style="15" customWidth="1"/>
+    <col min="2832" max="2832" width="10.5" style="15" customWidth="1"/>
     <col min="2833" max="3074" width="30.6640625" style="15"/>
-    <col min="3075" max="3075" width="17.5546875" style="15" customWidth="1"/>
+    <col min="3075" max="3075" width="17.5" style="15" customWidth="1"/>
     <col min="3076" max="3076" width="23.33203125" style="15" customWidth="1"/>
     <col min="3077" max="3077" width="18.6640625" style="15" customWidth="1"/>
     <col min="3078" max="3078" width="34.6640625" style="15" customWidth="1"/>
     <col min="3079" max="3079" width="20" style="15" customWidth="1"/>
     <col min="3080" max="3080" width="41.6640625" style="15" customWidth="1"/>
-    <col min="3081" max="3081" width="22.44140625" style="15" customWidth="1"/>
+    <col min="3081" max="3081" width="22.5" style="15" customWidth="1"/>
     <col min="3082" max="3082" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3083" max="3083" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3084" max="3084" width="12.33203125" style="15" customWidth="1"/>
-    <col min="3085" max="3085" width="17.109375" style="15" customWidth="1"/>
+    <col min="3085" max="3085" width="17.1640625" style="15" customWidth="1"/>
     <col min="3086" max="3086" width="17.6640625" style="15" customWidth="1"/>
-    <col min="3087" max="3087" width="24.44140625" style="15" customWidth="1"/>
-    <col min="3088" max="3088" width="10.44140625" style="15" customWidth="1"/>
+    <col min="3087" max="3087" width="24.5" style="15" customWidth="1"/>
+    <col min="3088" max="3088" width="10.5" style="15" customWidth="1"/>
     <col min="3089" max="3330" width="30.6640625" style="15"/>
-    <col min="3331" max="3331" width="17.5546875" style="15" customWidth="1"/>
+    <col min="3331" max="3331" width="17.5" style="15" customWidth="1"/>
     <col min="3332" max="3332" width="23.33203125" style="15" customWidth="1"/>
     <col min="3333" max="3333" width="18.6640625" style="15" customWidth="1"/>
     <col min="3334" max="3334" width="34.6640625" style="15" customWidth="1"/>
     <col min="3335" max="3335" width="20" style="15" customWidth="1"/>
     <col min="3336" max="3336" width="41.6640625" style="15" customWidth="1"/>
-    <col min="3337" max="3337" width="22.44140625" style="15" customWidth="1"/>
+    <col min="3337" max="3337" width="22.5" style="15" customWidth="1"/>
     <col min="3338" max="3338" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3339" max="3339" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3340" max="3340" width="12.33203125" style="15" customWidth="1"/>
-    <col min="3341" max="3341" width="17.109375" style="15" customWidth="1"/>
+    <col min="3341" max="3341" width="17.1640625" style="15" customWidth="1"/>
     <col min="3342" max="3342" width="17.6640625" style="15" customWidth="1"/>
-    <col min="3343" max="3343" width="24.44140625" style="15" customWidth="1"/>
-    <col min="3344" max="3344" width="10.44140625" style="15" customWidth="1"/>
+    <col min="3343" max="3343" width="24.5" style="15" customWidth="1"/>
+    <col min="3344" max="3344" width="10.5" style="15" customWidth="1"/>
     <col min="3345" max="3586" width="30.6640625" style="15"/>
-    <col min="3587" max="3587" width="17.5546875" style="15" customWidth="1"/>
+    <col min="3587" max="3587" width="17.5" style="15" customWidth="1"/>
     <col min="3588" max="3588" width="23.33203125" style="15" customWidth="1"/>
     <col min="3589" max="3589" width="18.6640625" style="15" customWidth="1"/>
     <col min="3590" max="3590" width="34.6640625" style="15" customWidth="1"/>
     <col min="3591" max="3591" width="20" style="15" customWidth="1"/>
     <col min="3592" max="3592" width="41.6640625" style="15" customWidth="1"/>
-    <col min="3593" max="3593" width="22.44140625" style="15" customWidth="1"/>
+    <col min="3593" max="3593" width="22.5" style="15" customWidth="1"/>
     <col min="3594" max="3594" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3595" max="3595" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3596" max="3596" width="12.33203125" style="15" customWidth="1"/>
-    <col min="3597" max="3597" width="17.109375" style="15" customWidth="1"/>
+    <col min="3597" max="3597" width="17.1640625" style="15" customWidth="1"/>
     <col min="3598" max="3598" width="17.6640625" style="15" customWidth="1"/>
-    <col min="3599" max="3599" width="24.44140625" style="15" customWidth="1"/>
-    <col min="3600" max="3600" width="10.44140625" style="15" customWidth="1"/>
+    <col min="3599" max="3599" width="24.5" style="15" customWidth="1"/>
+    <col min="3600" max="3600" width="10.5" style="15" customWidth="1"/>
     <col min="3601" max="3842" width="30.6640625" style="15"/>
-    <col min="3843" max="3843" width="17.5546875" style="15" customWidth="1"/>
+    <col min="3843" max="3843" width="17.5" style="15" customWidth="1"/>
     <col min="3844" max="3844" width="23.33203125" style="15" customWidth="1"/>
     <col min="3845" max="3845" width="18.6640625" style="15" customWidth="1"/>
     <col min="3846" max="3846" width="34.6640625" style="15" customWidth="1"/>
     <col min="3847" max="3847" width="20" style="15" customWidth="1"/>
     <col min="3848" max="3848" width="41.6640625" style="15" customWidth="1"/>
-    <col min="3849" max="3849" width="22.44140625" style="15" customWidth="1"/>
+    <col min="3849" max="3849" width="22.5" style="15" customWidth="1"/>
     <col min="3850" max="3850" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3851" max="3851" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3852" max="3852" width="12.33203125" style="15" customWidth="1"/>
-    <col min="3853" max="3853" width="17.109375" style="15" customWidth="1"/>
+    <col min="3853" max="3853" width="17.1640625" style="15" customWidth="1"/>
     <col min="3854" max="3854" width="17.6640625" style="15" customWidth="1"/>
-    <col min="3855" max="3855" width="24.44140625" style="15" customWidth="1"/>
-    <col min="3856" max="3856" width="10.44140625" style="15" customWidth="1"/>
+    <col min="3855" max="3855" width="24.5" style="15" customWidth="1"/>
+    <col min="3856" max="3856" width="10.5" style="15" customWidth="1"/>
     <col min="3857" max="4098" width="30.6640625" style="15"/>
-    <col min="4099" max="4099" width="17.5546875" style="15" customWidth="1"/>
+    <col min="4099" max="4099" width="17.5" style="15" customWidth="1"/>
     <col min="4100" max="4100" width="23.33203125" style="15" customWidth="1"/>
     <col min="4101" max="4101" width="18.6640625" style="15" customWidth="1"/>
     <col min="4102" max="4102" width="34.6640625" style="15" customWidth="1"/>
     <col min="4103" max="4103" width="20" style="15" customWidth="1"/>
     <col min="4104" max="4104" width="41.6640625" style="15" customWidth="1"/>
-    <col min="4105" max="4105" width="22.44140625" style="15" customWidth="1"/>
+    <col min="4105" max="4105" width="22.5" style="15" customWidth="1"/>
     <col min="4106" max="4106" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4107" max="4107" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4108" max="4108" width="12.33203125" style="15" customWidth="1"/>
-    <col min="4109" max="4109" width="17.109375" style="15" customWidth="1"/>
+    <col min="4109" max="4109" width="17.1640625" style="15" customWidth="1"/>
     <col min="4110" max="4110" width="17.6640625" style="15" customWidth="1"/>
-    <col min="4111" max="4111" width="24.44140625" style="15" customWidth="1"/>
-    <col min="4112" max="4112" width="10.44140625" style="15" customWidth="1"/>
+    <col min="4111" max="4111" width="24.5" style="15" customWidth="1"/>
+    <col min="4112" max="4112" width="10.5" style="15" customWidth="1"/>
     <col min="4113" max="4354" width="30.6640625" style="15"/>
-    <col min="4355" max="4355" width="17.5546875" style="15" customWidth="1"/>
+    <col min="4355" max="4355" width="17.5" style="15" customWidth="1"/>
     <col min="4356" max="4356" width="23.33203125" style="15" customWidth="1"/>
     <col min="4357" max="4357" width="18.6640625" style="15" customWidth="1"/>
     <col min="4358" max="4358" width="34.6640625" style="15" customWidth="1"/>
     <col min="4359" max="4359" width="20" style="15" customWidth="1"/>
     <col min="4360" max="4360" width="41.6640625" style="15" customWidth="1"/>
-    <col min="4361" max="4361" width="22.44140625" style="15" customWidth="1"/>
+    <col min="4361" max="4361" width="22.5" style="15" customWidth="1"/>
     <col min="4362" max="4362" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4363" max="4363" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4364" max="4364" width="12.33203125" style="15" customWidth="1"/>
-    <col min="4365" max="4365" width="17.109375" style="15" customWidth="1"/>
+    <col min="4365" max="4365" width="17.1640625" style="15" customWidth="1"/>
     <col min="4366" max="4366" width="17.6640625" style="15" customWidth="1"/>
-    <col min="4367" max="4367" width="24.44140625" style="15" customWidth="1"/>
-    <col min="4368" max="4368" width="10.44140625" style="15" customWidth="1"/>
+    <col min="4367" max="4367" width="24.5" style="15" customWidth="1"/>
+    <col min="4368" max="4368" width="10.5" style="15" customWidth="1"/>
     <col min="4369" max="4610" width="30.6640625" style="15"/>
-    <col min="4611" max="4611" width="17.5546875" style="15" customWidth="1"/>
+    <col min="4611" max="4611" width="17.5" style="15" customWidth="1"/>
     <col min="4612" max="4612" width="23.33203125" style="15" customWidth="1"/>
     <col min="4613" max="4613" width="18.6640625" style="15" customWidth="1"/>
     <col min="4614" max="4614" width="34.6640625" style="15" customWidth="1"/>
     <col min="4615" max="4615" width="20" style="15" customWidth="1"/>
     <col min="4616" max="4616" width="41.6640625" style="15" customWidth="1"/>
-    <col min="4617" max="4617" width="22.44140625" style="15" customWidth="1"/>
+    <col min="4617" max="4617" width="22.5" style="15" customWidth="1"/>
     <col min="4618" max="4618" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4619" max="4619" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4620" max="4620" width="12.33203125" style="15" customWidth="1"/>
-    <col min="4621" max="4621" width="17.109375" style="15" customWidth="1"/>
+    <col min="4621" max="4621" width="17.1640625" style="15" customWidth="1"/>
     <col min="4622" max="4622" width="17.6640625" style="15" customWidth="1"/>
-    <col min="4623" max="4623" width="24.44140625" style="15" customWidth="1"/>
-    <col min="4624" max="4624" width="10.44140625" style="15" customWidth="1"/>
+    <col min="4623" max="4623" width="24.5" style="15" customWidth="1"/>
+    <col min="4624" max="4624" width="10.5" style="15" customWidth="1"/>
     <col min="4625" max="4866" width="30.6640625" style="15"/>
-    <col min="4867" max="4867" width="17.5546875" style="15" customWidth="1"/>
+    <col min="4867" max="4867" width="17.5" style="15" customWidth="1"/>
     <col min="4868" max="4868" width="23.33203125" style="15" customWidth="1"/>
     <col min="4869" max="4869" width="18.6640625" style="15" customWidth="1"/>
     <col min="4870" max="4870" width="34.6640625" style="15" customWidth="1"/>
     <col min="4871" max="4871" width="20" style="15" customWidth="1"/>
     <col min="4872" max="4872" width="41.6640625" style="15" customWidth="1"/>
-    <col min="4873" max="4873" width="22.44140625" style="15" customWidth="1"/>
+    <col min="4873" max="4873" width="22.5" style="15" customWidth="1"/>
     <col min="4874" max="4874" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4875" max="4875" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4876" max="4876" width="12.33203125" style="15" customWidth="1"/>
-    <col min="4877" max="4877" width="17.109375" style="15" customWidth="1"/>
+    <col min="4877" max="4877" width="17.1640625" style="15" customWidth="1"/>
     <col min="4878" max="4878" width="17.6640625" style="15" customWidth="1"/>
-    <col min="4879" max="4879" width="24.44140625" style="15" customWidth="1"/>
-    <col min="4880" max="4880" width="10.44140625" style="15" customWidth="1"/>
+    <col min="4879" max="4879" width="24.5" style="15" customWidth="1"/>
+    <col min="4880" max="4880" width="10.5" style="15" customWidth="1"/>
     <col min="4881" max="5122" width="30.6640625" style="15"/>
-    <col min="5123" max="5123" width="17.5546875" style="15" customWidth="1"/>
+    <col min="5123" max="5123" width="17.5" style="15" customWidth="1"/>
     <col min="5124" max="5124" width="23.33203125" style="15" customWidth="1"/>
     <col min="5125" max="5125" width="18.6640625" style="15" customWidth="1"/>
     <col min="5126" max="5126" width="34.6640625" style="15" customWidth="1"/>
     <col min="5127" max="5127" width="20" style="15" customWidth="1"/>
     <col min="5128" max="5128" width="41.6640625" style="15" customWidth="1"/>
-    <col min="5129" max="5129" width="22.44140625" style="15" customWidth="1"/>
+    <col min="5129" max="5129" width="22.5" style="15" customWidth="1"/>
     <col min="5130" max="5130" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="5131" max="5131" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="5132" max="5132" width="12.33203125" style="15" customWidth="1"/>
-    <col min="5133" max="5133" width="17.109375" style="15" customWidth="1"/>
+    <col min="5133" max="5133" width="17.1640625" style="15" customWidth="1"/>
     <col min="5134" max="5134" width="17.6640625" style="15" customWidth="1"/>
-    <col min="5135" max="5135" width="24.44140625" style="15" customWidth="1"/>
-    <col min="5136" max="5136" width="10.44140625" style="15" customWidth="1"/>
+    <col min="5135" max="5135" width="24.5" style="15" customWidth="1"/>
+    <col min="5136" max="5136" width="10.5" style="15" customWidth="1"/>
     <col min="5137" max="5378" width="30.6640625" style="15"/>
-    <col min="5379" max="5379" width="17.5546875" style="15" customWidth="1"/>
+    <col min="5379" max="5379" width="17.5" style="15" customWidth="1"/>
     <col min="5380" max="5380" width="23.33203125" style="15" customWidth="1"/>
     <col min="5381" max="5381" width="18.6640625" style="15" customWidth="1"/>
     <col min="5382" max="5382" width="34.6640625" style="15" customWidth="1"/>
     <col min="5383" max="5383" width="20" style="15" customWidth="1"/>
     <col min="5384" max="5384" width="41.6640625" style="15" customWidth="1"/>
-    <col min="5385" max="5385" width="22.44140625" style="15" customWidth="1"/>
+    <col min="5385" max="5385" width="22.5" style="15" customWidth="1"/>
     <col min="5386" max="5386" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="5387" max="5387" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="5388" max="5388" width="12.33203125" style="15" customWidth="1"/>
-    <col min="5389" max="5389" width="17.109375" style="15" customWidth="1"/>
+    <col min="5389" max="5389" width="17.1640625" style="15" customWidth="1"/>
     <col min="5390" max="5390" width="17.6640625" style="15" customWidth="1"/>
-    <col min="5391" max="5391" width="24.44140625" style="15" customWidth="1"/>
-    <col min="5392" max="5392" width="10.44140625" style="15" customWidth="1"/>
+    <col min="5391" max="5391" width="24.5" style="15" customWidth="1"/>
+    <col min="5392" max="5392" width="10.5" style="15" customWidth="1"/>
     <col min="5393" max="5634" width="30.6640625" style="15"/>
-    <col min="5635" max="5635" width="17.5546875" style="15" customWidth="1"/>
+    <col min="5635" max="5635" width="17.5" style="15" customWidth="1"/>
     <col min="5636" max="5636" width="23.33203125" style="15" customWidth="1"/>
     <col min="5637" max="5637" width="18.6640625" style="15" customWidth="1"/>
     <col min="5638" max="5638" width="34.6640625" style="15" customWidth="1"/>
     <col min="5639" max="5639" width="20" style="15" customWidth="1"/>
     <col min="5640" max="5640" width="41.6640625" style="15" customWidth="1"/>
-    <col min="5641" max="5641" width="22.44140625" style="15" customWidth="1"/>
+    <col min="5641" max="5641" width="22.5" style="15" customWidth="1"/>
     <col min="5642" max="5642" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="5643" max="5643" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="5644" max="5644" width="12.33203125" style="15" customWidth="1"/>
-    <col min="5645" max="5645" width="17.109375" style="15" customWidth="1"/>
+    <col min="5645" max="5645" width="17.1640625" style="15" customWidth="1"/>
     <col min="5646" max="5646" width="17.6640625" style="15" customWidth="1"/>
-    <col min="5647" max="5647" width="24.44140625" style="15" customWidth="1"/>
-    <col min="5648" max="5648" width="10.44140625" style="15" customWidth="1"/>
+    <col min="5647" max="5647" width="24.5" style="15" customWidth="1"/>
+    <col min="5648" max="5648" width="10.5" style="15" customWidth="1"/>
     <col min="5649" max="5890" width="30.6640625" style="15"/>
-    <col min="5891" max="5891" width="17.5546875" style="15" customWidth="1"/>
+    <col min="5891" max="5891" width="17.5" style="15" customWidth="1"/>
     <col min="5892" max="5892" width="23.33203125" style="15" customWidth="1"/>
     <col min="5893" max="5893" width="18.6640625" style="15" customWidth="1"/>
     <col min="5894" max="5894" width="34.6640625" style="15" customWidth="1"/>
     <col min="5895" max="5895" width="20" style="15" customWidth="1"/>
     <col min="5896" max="5896" width="41.6640625" style="15" customWidth="1"/>
-    <col min="5897" max="5897" width="22.44140625" style="15" customWidth="1"/>
+    <col min="5897" max="5897" width="22.5" style="15" customWidth="1"/>
     <col min="5898" max="5898" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="5899" max="5899" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="5900" max="5900" width="12.33203125" style="15" customWidth="1"/>
-    <col min="5901" max="5901" width="17.109375" style="15" customWidth="1"/>
+    <col min="5901" max="5901" width="17.1640625" style="15" customWidth="1"/>
     <col min="5902" max="5902" width="17.6640625" style="15" customWidth="1"/>
-    <col min="5903" max="5903" width="24.44140625" style="15" customWidth="1"/>
-    <col min="5904" max="5904" width="10.44140625" style="15" customWidth="1"/>
+    <col min="5903" max="5903" width="24.5" style="15" customWidth="1"/>
+    <col min="5904" max="5904" width="10.5" style="15" customWidth="1"/>
     <col min="5905" max="6146" width="30.6640625" style="15"/>
-    <col min="6147" max="6147" width="17.5546875" style="15" customWidth="1"/>
+    <col min="6147" max="6147" width="17.5" style="15" customWidth="1"/>
     <col min="6148" max="6148" width="23.33203125" style="15" customWidth="1"/>
     <col min="6149" max="6149" width="18.6640625" style="15" customWidth="1"/>
     <col min="6150" max="6150" width="34.6640625" style="15" customWidth="1"/>
     <col min="6151" max="6151" width="20" style="15" customWidth="1"/>
     <col min="6152" max="6152" width="41.6640625" style="15" customWidth="1"/>
-    <col min="6153" max="6153" width="22.44140625" style="15" customWidth="1"/>
+    <col min="6153" max="6153" width="22.5" style="15" customWidth="1"/>
     <col min="6154" max="6154" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6155" max="6155" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6156" max="6156" width="12.33203125" style="15" customWidth="1"/>
-    <col min="6157" max="6157" width="17.109375" style="15" customWidth="1"/>
+    <col min="6157" max="6157" width="17.1640625" style="15" customWidth="1"/>
     <col min="6158" max="6158" width="17.6640625" style="15" customWidth="1"/>
-    <col min="6159" max="6159" width="24.44140625" style="15" customWidth="1"/>
-    <col min="6160" max="6160" width="10.44140625" style="15" customWidth="1"/>
+    <col min="6159" max="6159" width="24.5" style="15" customWidth="1"/>
+    <col min="6160" max="6160" width="10.5" style="15" customWidth="1"/>
     <col min="6161" max="6402" width="30.6640625" style="15"/>
-    <col min="6403" max="6403" width="17.5546875" style="15" customWidth="1"/>
+    <col min="6403" max="6403" width="17.5" style="15" customWidth="1"/>
     <col min="6404" max="6404" width="23.33203125" style="15" customWidth="1"/>
     <col min="6405" max="6405" width="18.6640625" style="15" customWidth="1"/>
     <col min="6406" max="6406" width="34.6640625" style="15" customWidth="1"/>
     <col min="6407" max="6407" width="20" style="15" customWidth="1"/>
     <col min="6408" max="6408" width="41.6640625" style="15" customWidth="1"/>
-    <col min="6409" max="6409" width="22.44140625" style="15" customWidth="1"/>
+    <col min="6409" max="6409" width="22.5" style="15" customWidth="1"/>
     <col min="6410" max="6410" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6411" max="6411" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6412" max="6412" width="12.33203125" style="15" customWidth="1"/>
-    <col min="6413" max="6413" width="17.109375" style="15" customWidth="1"/>
+    <col min="6413" max="6413" width="17.1640625" style="15" customWidth="1"/>
     <col min="6414" max="6414" width="17.6640625" style="15" customWidth="1"/>
-    <col min="6415" max="6415" width="24.44140625" style="15" customWidth="1"/>
-    <col min="6416" max="6416" width="10.44140625" style="15" customWidth="1"/>
+    <col min="6415" max="6415" width="24.5" style="15" customWidth="1"/>
+    <col min="6416" max="6416" width="10.5" style="15" customWidth="1"/>
     <col min="6417" max="6658" width="30.6640625" style="15"/>
-    <col min="6659" max="6659" width="17.5546875" style="15" customWidth="1"/>
+    <col min="6659" max="6659" width="17.5" style="15" customWidth="1"/>
     <col min="6660" max="6660" width="23.33203125" style="15" customWidth="1"/>
     <col min="6661" max="6661" width="18.6640625" style="15" customWidth="1"/>
     <col min="6662" max="6662" width="34.6640625" style="15" customWidth="1"/>
     <col min="6663" max="6663" width="20" style="15" customWidth="1"/>
     <col min="6664" max="6664" width="41.6640625" style="15" customWidth="1"/>
-    <col min="6665" max="6665" width="22.44140625" style="15" customWidth="1"/>
+    <col min="6665" max="6665" width="22.5" style="15" customWidth="1"/>
     <col min="6666" max="6666" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6667" max="6667" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6668" max="6668" width="12.33203125" style="15" customWidth="1"/>
-    <col min="6669" max="6669" width="17.109375" style="15" customWidth="1"/>
+    <col min="6669" max="6669" width="17.1640625" style="15" customWidth="1"/>
     <col min="6670" max="6670" width="17.6640625" style="15" customWidth="1"/>
-    <col min="6671" max="6671" width="24.44140625" style="15" customWidth="1"/>
-    <col min="6672" max="6672" width="10.44140625" style="15" customWidth="1"/>
+    <col min="6671" max="6671" width="24.5" style="15" customWidth="1"/>
+    <col min="6672" max="6672" width="10.5" style="15" customWidth="1"/>
     <col min="6673" max="6914" width="30.6640625" style="15"/>
-    <col min="6915" max="6915" width="17.5546875" style="15" customWidth="1"/>
+    <col min="6915" max="6915" width="17.5" style="15" customWidth="1"/>
     <col min="6916" max="6916" width="23.33203125" style="15" customWidth="1"/>
     <col min="6917" max="6917" width="18.6640625" style="15" customWidth="1"/>
     <col min="6918" max="6918" width="34.6640625" style="15" customWidth="1"/>
     <col min="6919" max="6919" width="20" style="15" customWidth="1"/>
     <col min="6920" max="6920" width="41.6640625" style="15" customWidth="1"/>
-    <col min="6921" max="6921" width="22.44140625" style="15" customWidth="1"/>
+    <col min="6921" max="6921" width="22.5" style="15" customWidth="1"/>
     <col min="6922" max="6922" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6923" max="6923" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6924" max="6924" width="12.33203125" style="15" customWidth="1"/>
-    <col min="6925" max="6925" width="17.109375" style="15" customWidth="1"/>
+    <col min="6925" max="6925" width="17.1640625" style="15" customWidth="1"/>
     <col min="6926" max="6926" width="17.6640625" style="15" customWidth="1"/>
-    <col min="6927" max="6927" width="24.44140625" style="15" customWidth="1"/>
-    <col min="6928" max="6928" width="10.44140625" style="15" customWidth="1"/>
+    <col min="6927" max="6927" width="24.5" style="15" customWidth="1"/>
+    <col min="6928" max="6928" width="10.5" style="15" customWidth="1"/>
     <col min="6929" max="7170" width="30.6640625" style="15"/>
-    <col min="7171" max="7171" width="17.5546875" style="15" customWidth="1"/>
+    <col min="7171" max="7171" width="17.5" style="15" customWidth="1"/>
     <col min="7172" max="7172" width="23.33203125" style="15" customWidth="1"/>
     <col min="7173" max="7173" width="18.6640625" style="15" customWidth="1"/>
     <col min="7174" max="7174" width="34.6640625" style="15" customWidth="1"/>
     <col min="7175" max="7175" width="20" style="15" customWidth="1"/>
     <col min="7176" max="7176" width="41.6640625" style="15" customWidth="1"/>
-    <col min="7177" max="7177" width="22.44140625" style="15" customWidth="1"/>
+    <col min="7177" max="7177" width="22.5" style="15" customWidth="1"/>
     <col min="7178" max="7178" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7179" max="7179" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7180" max="7180" width="12.33203125" style="15" customWidth="1"/>
-    <col min="7181" max="7181" width="17.109375" style="15" customWidth="1"/>
+    <col min="7181" max="7181" width="17.1640625" style="15" customWidth="1"/>
     <col min="7182" max="7182" width="17.6640625" style="15" customWidth="1"/>
-    <col min="7183" max="7183" width="24.44140625" style="15" customWidth="1"/>
-    <col min="7184" max="7184" width="10.44140625" style="15" customWidth="1"/>
+    <col min="7183" max="7183" width="24.5" style="15" customWidth="1"/>
+    <col min="7184" max="7184" width="10.5" style="15" customWidth="1"/>
     <col min="7185" max="7426" width="30.6640625" style="15"/>
-    <col min="7427" max="7427" width="17.5546875" style="15" customWidth="1"/>
+    <col min="7427" max="7427" width="17.5" style="15" customWidth="1"/>
     <col min="7428" max="7428" width="23.33203125" style="15" customWidth="1"/>
     <col min="7429" max="7429" width="18.6640625" style="15" customWidth="1"/>
     <col min="7430" max="7430" width="34.6640625" style="15" customWidth="1"/>
     <col min="7431" max="7431" width="20" style="15" customWidth="1"/>
     <col min="7432" max="7432" width="41.6640625" style="15" customWidth="1"/>
-    <col min="7433" max="7433" width="22.44140625" style="15" customWidth="1"/>
+    <col min="7433" max="7433" width="22.5" style="15" customWidth="1"/>
     <col min="7434" max="7434" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7435" max="7435" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7436" max="7436" width="12.33203125" style="15" customWidth="1"/>
-    <col min="7437" max="7437" width="17.109375" style="15" customWidth="1"/>
+    <col min="7437" max="7437" width="17.1640625" style="15" customWidth="1"/>
     <col min="7438" max="7438" width="17.6640625" style="15" customWidth="1"/>
-    <col min="7439" max="7439" width="24.44140625" style="15" customWidth="1"/>
-    <col min="7440" max="7440" width="10.44140625" style="15" customWidth="1"/>
+    <col min="7439" max="7439" width="24.5" style="15" customWidth="1"/>
+    <col min="7440" max="7440" width="10.5" style="15" customWidth="1"/>
     <col min="7441" max="7682" width="30.6640625" style="15"/>
-    <col min="7683" max="7683" width="17.5546875" style="15" customWidth="1"/>
+    <col min="7683" max="7683" width="17.5" style="15" customWidth="1"/>
     <col min="7684" max="7684" width="23.33203125" style="15" customWidth="1"/>
     <col min="7685" max="7685" width="18.6640625" style="15" customWidth="1"/>
     <col min="7686" max="7686" width="34.6640625" style="15" customWidth="1"/>
     <col min="7687" max="7687" width="20" style="15" customWidth="1"/>
     <col min="7688" max="7688" width="41.6640625" style="15" customWidth="1"/>
-    <col min="7689" max="7689" width="22.44140625" style="15" customWidth="1"/>
+    <col min="7689" max="7689" width="22.5" style="15" customWidth="1"/>
     <col min="7690" max="7690" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7691" max="7691" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7692" max="7692" width="12.33203125" style="15" customWidth="1"/>
-    <col min="7693" max="7693" width="17.109375" style="15" customWidth="1"/>
+    <col min="7693" max="7693" width="17.1640625" style="15" customWidth="1"/>
     <col min="7694" max="7694" width="17.6640625" style="15" customWidth="1"/>
-    <col min="7695" max="7695" width="24.44140625" style="15" customWidth="1"/>
-    <col min="7696" max="7696" width="10.44140625" style="15" customWidth="1"/>
+    <col min="7695" max="7695" width="24.5" style="15" customWidth="1"/>
+    <col min="7696" max="7696" width="10.5" style="15" customWidth="1"/>
     <col min="7697" max="7938" width="30.6640625" style="15"/>
-    <col min="7939" max="7939" width="17.5546875" style="15" customWidth="1"/>
+    <col min="7939" max="7939" width="17.5" style="15" customWidth="1"/>
     <col min="7940" max="7940" width="23.33203125" style="15" customWidth="1"/>
     <col min="7941" max="7941" width="18.6640625" style="15" customWidth="1"/>
     <col min="7942" max="7942" width="34.6640625" style="15" customWidth="1"/>
     <col min="7943" max="7943" width="20" style="15" customWidth="1"/>
     <col min="7944" max="7944" width="41.6640625" style="15" customWidth="1"/>
-    <col min="7945" max="7945" width="22.44140625" style="15" customWidth="1"/>
+    <col min="7945" max="7945" width="22.5" style="15" customWidth="1"/>
     <col min="7946" max="7946" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7947" max="7947" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7948" max="7948" width="12.33203125" style="15" customWidth="1"/>
-    <col min="7949" max="7949" width="17.109375" style="15" customWidth="1"/>
+    <col min="7949" max="7949" width="17.1640625" style="15" customWidth="1"/>
     <col min="7950" max="7950" width="17.6640625" style="15" customWidth="1"/>
-    <col min="7951" max="7951" width="24.44140625" style="15" customWidth="1"/>
-    <col min="7952" max="7952" width="10.44140625" style="15" customWidth="1"/>
+    <col min="7951" max="7951" width="24.5" style="15" customWidth="1"/>
+    <col min="7952" max="7952" width="10.5" style="15" customWidth="1"/>
     <col min="7953" max="8194" width="30.6640625" style="15"/>
-    <col min="8195" max="8195" width="17.5546875" style="15" customWidth="1"/>
+    <col min="8195" max="8195" width="17.5" style="15" customWidth="1"/>
     <col min="8196" max="8196" width="23.33203125" style="15" customWidth="1"/>
     <col min="8197" max="8197" width="18.6640625" style="15" customWidth="1"/>
     <col min="8198" max="8198" width="34.6640625" style="15" customWidth="1"/>
     <col min="8199" max="8199" width="20" style="15" customWidth="1"/>
     <col min="8200" max="8200" width="41.6640625" style="15" customWidth="1"/>
-    <col min="8201" max="8201" width="22.44140625" style="15" customWidth="1"/>
+    <col min="8201" max="8201" width="22.5" style="15" customWidth="1"/>
     <col min="8202" max="8202" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8203" max="8203" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8204" max="8204" width="12.33203125" style="15" customWidth="1"/>
-    <col min="8205" max="8205" width="17.109375" style="15" customWidth="1"/>
+    <col min="8205" max="8205" width="17.1640625" style="15" customWidth="1"/>
     <col min="8206" max="8206" width="17.6640625" style="15" customWidth="1"/>
-    <col min="8207" max="8207" width="24.44140625" style="15" customWidth="1"/>
-    <col min="8208" max="8208" width="10.44140625" style="15" customWidth="1"/>
+    <col min="8207" max="8207" width="24.5" style="15" customWidth="1"/>
+    <col min="8208" max="8208" width="10.5" style="15" customWidth="1"/>
     <col min="8209" max="8450" width="30.6640625" style="15"/>
-    <col min="8451" max="8451" width="17.5546875" style="15" customWidth="1"/>
+    <col min="8451" max="8451" width="17.5" style="15" customWidth="1"/>
     <col min="8452" max="8452" width="23.33203125" style="15" customWidth="1"/>
     <col min="8453" max="8453" width="18.6640625" style="15" customWidth="1"/>
     <col min="8454" max="8454" width="34.6640625" style="15" customWidth="1"/>
     <col min="8455" max="8455" width="20" style="15" customWidth="1"/>
     <col min="8456" max="8456" width="41.6640625" style="15" customWidth="1"/>
-    <col min="8457" max="8457" width="22.44140625" style="15" customWidth="1"/>
+    <col min="8457" max="8457" width="22.5" style="15" customWidth="1"/>
     <col min="8458" max="8458" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8459" max="8459" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8460" max="8460" width="12.33203125" style="15" customWidth="1"/>
-    <col min="8461" max="8461" width="17.109375" style="15" customWidth="1"/>
+    <col min="8461" max="8461" width="17.1640625" style="15" customWidth="1"/>
     <col min="8462" max="8462" width="17.6640625" style="15" customWidth="1"/>
-    <col min="8463" max="8463" width="24.44140625" style="15" customWidth="1"/>
-    <col min="8464" max="8464" width="10.44140625" style="15" customWidth="1"/>
+    <col min="8463" max="8463" width="24.5" style="15" customWidth="1"/>
+    <col min="8464" max="8464" width="10.5" style="15" customWidth="1"/>
     <col min="8465" max="8706" width="30.6640625" style="15"/>
-    <col min="8707" max="8707" width="17.5546875" style="15" customWidth="1"/>
+    <col min="8707" max="8707" width="17.5" style="15" customWidth="1"/>
     <col min="8708" max="8708" width="23.33203125" style="15" customWidth="1"/>
     <col min="8709" max="8709" width="18.6640625" style="15" customWidth="1"/>
     <col min="8710" max="8710" width="34.6640625" style="15" customWidth="1"/>
     <col min="8711" max="8711" width="20" style="15" customWidth="1"/>
     <col min="8712" max="8712" width="41.6640625" style="15" customWidth="1"/>
-    <col min="8713" max="8713" width="22.44140625" style="15" customWidth="1"/>
+    <col min="8713" max="8713" width="22.5" style="15" customWidth="1"/>
     <col min="8714" max="8714" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8715" max="8715" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8716" max="8716" width="12.33203125" style="15" customWidth="1"/>
-    <col min="8717" max="8717" width="17.109375" style="15" customWidth="1"/>
+    <col min="8717" max="8717" width="17.1640625" style="15" customWidth="1"/>
     <col min="8718" max="8718" width="17.6640625" style="15" customWidth="1"/>
-    <col min="8719" max="8719" width="24.44140625" style="15" customWidth="1"/>
-    <col min="8720" max="8720" width="10.44140625" style="15" customWidth="1"/>
+    <col min="8719" max="8719" width="24.5" style="15" customWidth="1"/>
+    <col min="8720" max="8720" width="10.5" style="15" customWidth="1"/>
     <col min="8721" max="8962" width="30.6640625" style="15"/>
-    <col min="8963" max="8963" width="17.5546875" style="15" customWidth="1"/>
+    <col min="8963" max="8963" width="17.5" style="15" customWidth="1"/>
     <col min="8964" max="8964" width="23.33203125" style="15" customWidth="1"/>
     <col min="8965" max="8965" width="18.6640625" style="15" customWidth="1"/>
     <col min="8966" max="8966" width="34.6640625" style="15" customWidth="1"/>
     <col min="8967" max="8967" width="20" style="15" customWidth="1"/>
     <col min="8968" max="8968" width="41.6640625" style="15" customWidth="1"/>
-    <col min="8969" max="8969" width="22.44140625" style="15" customWidth="1"/>
+    <col min="8969" max="8969" width="22.5" style="15" customWidth="1"/>
     <col min="8970" max="8970" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8971" max="8971" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8972" max="8972" width="12.33203125" style="15" customWidth="1"/>
-    <col min="8973" max="8973" width="17.109375" style="15" customWidth="1"/>
+    <col min="8973" max="8973" width="17.1640625" style="15" customWidth="1"/>
     <col min="8974" max="8974" width="17.6640625" style="15" customWidth="1"/>
-    <col min="8975" max="8975" width="24.44140625" style="15" customWidth="1"/>
-    <col min="8976" max="8976" width="10.44140625" style="15" customWidth="1"/>
+    <col min="8975" max="8975" width="24.5" style="15" customWidth="1"/>
+    <col min="8976" max="8976" width="10.5" style="15" customWidth="1"/>
     <col min="8977" max="9218" width="30.6640625" style="15"/>
-    <col min="9219" max="9219" width="17.5546875" style="15" customWidth="1"/>
+    <col min="9219" max="9219" width="17.5" style="15" customWidth="1"/>
     <col min="9220" max="9220" width="23.33203125" style="15" customWidth="1"/>
     <col min="9221" max="9221" width="18.6640625" style="15" customWidth="1"/>
     <col min="9222" max="9222" width="34.6640625" style="15" customWidth="1"/>
     <col min="9223" max="9223" width="20" style="15" customWidth="1"/>
     <col min="9224" max="9224" width="41.6640625" style="15" customWidth="1"/>
-    <col min="9225" max="9225" width="22.44140625" style="15" customWidth="1"/>
+    <col min="9225" max="9225" width="22.5" style="15" customWidth="1"/>
     <col min="9226" max="9226" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9227" max="9227" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9228" max="9228" width="12.33203125" style="15" customWidth="1"/>
-    <col min="9229" max="9229" width="17.109375" style="15" customWidth="1"/>
+    <col min="9229" max="9229" width="17.1640625" style="15" customWidth="1"/>
     <col min="9230" max="9230" width="17.6640625" style="15" customWidth="1"/>
-    <col min="9231" max="9231" width="24.44140625" style="15" customWidth="1"/>
-    <col min="9232" max="9232" width="10.44140625" style="15" customWidth="1"/>
+    <col min="9231" max="9231" width="24.5" style="15" customWidth="1"/>
+    <col min="9232" max="9232" width="10.5" style="15" customWidth="1"/>
     <col min="9233" max="9474" width="30.6640625" style="15"/>
-    <col min="9475" max="9475" width="17.5546875" style="15" customWidth="1"/>
+    <col min="9475" max="9475" width="17.5" style="15" customWidth="1"/>
     <col min="9476" max="9476" width="23.33203125" style="15" customWidth="1"/>
     <col min="9477" max="9477" width="18.6640625" style="15" customWidth="1"/>
     <col min="9478" max="9478" width="34.6640625" style="15" customWidth="1"/>
     <col min="9479" max="9479" width="20" style="15" customWidth="1"/>
     <col min="9480" max="9480" width="41.6640625" style="15" customWidth="1"/>
-    <col min="9481" max="9481" width="22.44140625" style="15" customWidth="1"/>
+    <col min="9481" max="9481" width="22.5" style="15" customWidth="1"/>
     <col min="9482" max="9482" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9483" max="9483" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9484" max="9484" width="12.33203125" style="15" customWidth="1"/>
-    <col min="9485" max="9485" width="17.109375" style="15" customWidth="1"/>
+    <col min="9485" max="9485" width="17.1640625" style="15" customWidth="1"/>
     <col min="9486" max="9486" width="17.6640625" style="15" customWidth="1"/>
-    <col min="9487" max="9487" width="24.44140625" style="15" customWidth="1"/>
-    <col min="9488" max="9488" width="10.44140625" style="15" customWidth="1"/>
+    <col min="9487" max="9487" width="24.5" style="15" customWidth="1"/>
+    <col min="9488" max="9488" width="10.5" style="15" customWidth="1"/>
     <col min="9489" max="9730" width="30.6640625" style="15"/>
-    <col min="9731" max="9731" width="17.5546875" style="15" customWidth="1"/>
+    <col min="9731" max="9731" width="17.5" style="15" customWidth="1"/>
     <col min="9732" max="9732" width="23.33203125" style="15" customWidth="1"/>
     <col min="9733" max="9733" width="18.6640625" style="15" customWidth="1"/>
     <col min="9734" max="9734" width="34.6640625" style="15" customWidth="1"/>
     <col min="9735" max="9735" width="20" style="15" customWidth="1"/>
     <col min="9736" max="9736" width="41.6640625" style="15" customWidth="1"/>
-    <col min="9737" max="9737" width="22.44140625" style="15" customWidth="1"/>
+    <col min="9737" max="9737" width="22.5" style="15" customWidth="1"/>
     <col min="9738" max="9738" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9739" max="9739" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9740" max="9740" width="12.33203125" style="15" customWidth="1"/>
-    <col min="9741" max="9741" width="17.109375" style="15" customWidth="1"/>
+    <col min="9741" max="9741" width="17.1640625" style="15" customWidth="1"/>
     <col min="9742" max="9742" width="17.6640625" style="15" customWidth="1"/>
-    <col min="9743" max="9743" width="24.44140625" style="15" customWidth="1"/>
-    <col min="9744" max="9744" width="10.44140625" style="15" customWidth="1"/>
+    <col min="9743" max="9743" width="24.5" style="15" customWidth="1"/>
+    <col min="9744" max="9744" width="10.5" style="15" customWidth="1"/>
     <col min="9745" max="9986" width="30.6640625" style="15"/>
-    <col min="9987" max="9987" width="17.5546875" style="15" customWidth="1"/>
+    <col min="9987" max="9987" width="17.5" style="15" customWidth="1"/>
     <col min="9988" max="9988" width="23.33203125" style="15" customWidth="1"/>
     <col min="9989" max="9989" width="18.6640625" style="15" customWidth="1"/>
     <col min="9990" max="9990" width="34.6640625" style="15" customWidth="1"/>
     <col min="9991" max="9991" width="20" style="15" customWidth="1"/>
     <col min="9992" max="9992" width="41.6640625" style="15" customWidth="1"/>
-    <col min="9993" max="9993" width="22.44140625" style="15" customWidth="1"/>
+    <col min="9993" max="9993" width="22.5" style="15" customWidth="1"/>
     <col min="9994" max="9994" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9995" max="9995" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9996" max="9996" width="12.33203125" style="15" customWidth="1"/>
-    <col min="9997" max="9997" width="17.109375" style="15" customWidth="1"/>
+    <col min="9997" max="9997" width="17.1640625" style="15" customWidth="1"/>
     <col min="9998" max="9998" width="17.6640625" style="15" customWidth="1"/>
-    <col min="9999" max="9999" width="24.44140625" style="15" customWidth="1"/>
-    <col min="10000" max="10000" width="10.44140625" style="15" customWidth="1"/>
+    <col min="9999" max="9999" width="24.5" style="15" customWidth="1"/>
+    <col min="10000" max="10000" width="10.5" style="15" customWidth="1"/>
     <col min="10001" max="10242" width="30.6640625" style="15"/>
-    <col min="10243" max="10243" width="17.5546875" style="15" customWidth="1"/>
+    <col min="10243" max="10243" width="17.5" style="15" customWidth="1"/>
     <col min="10244" max="10244" width="23.33203125" style="15" customWidth="1"/>
     <col min="10245" max="10245" width="18.6640625" style="15" customWidth="1"/>
     <col min="10246" max="10246" width="34.6640625" style="15" customWidth="1"/>
     <col min="10247" max="10247" width="20" style="15" customWidth="1"/>
     <col min="10248" max="10248" width="41.6640625" style="15" customWidth="1"/>
-    <col min="10249" max="10249" width="22.44140625" style="15" customWidth="1"/>
+    <col min="10249" max="10249" width="22.5" style="15" customWidth="1"/>
     <col min="10250" max="10250" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="10251" max="10251" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="10252" max="10252" width="12.33203125" style="15" customWidth="1"/>
-    <col min="10253" max="10253" width="17.109375" style="15" customWidth="1"/>
+    <col min="10253" max="10253" width="17.1640625" style="15" customWidth="1"/>
     <col min="10254" max="10254" width="17.6640625" style="15" customWidth="1"/>
-    <col min="10255" max="10255" width="24.44140625" style="15" customWidth="1"/>
-    <col min="10256" max="10256" width="10.44140625" style="15" customWidth="1"/>
+    <col min="10255" max="10255" width="24.5" style="15" customWidth="1"/>
+    <col min="10256" max="10256" width="10.5" style="15" customWidth="1"/>
     <col min="10257" max="10498" width="30.6640625" style="15"/>
-    <col min="10499" max="10499" width="17.5546875" style="15" customWidth="1"/>
+    <col min="10499" max="10499" width="17.5" style="15" customWidth="1"/>
     <col min="10500" max="10500" width="23.33203125" style="15" customWidth="1"/>
     <col min="10501" max="10501" width="18.6640625" style="15" customWidth="1"/>
     <col min="10502" max="10502" width="34.6640625" style="15" customWidth="1"/>
     <col min="10503" max="10503" width="20" style="15" customWidth="1"/>
     <col min="10504" max="10504" width="41.6640625" style="15" customWidth="1"/>
-    <col min="10505" max="10505" width="22.44140625" style="15" customWidth="1"/>
+    <col min="10505" max="10505" width="22.5" style="15" customWidth="1"/>
     <col min="10506" max="10506" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="10507" max="10507" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="10508" max="10508" width="12.33203125" style="15" customWidth="1"/>
-    <col min="10509" max="10509" width="17.109375" style="15" customWidth="1"/>
+    <col min="10509" max="10509" width="17.1640625" style="15" customWidth="1"/>
     <col min="10510" max="10510" width="17.6640625" style="15" customWidth="1"/>
-    <col min="10511" max="10511" width="24.44140625" style="15" customWidth="1"/>
-    <col min="10512" max="10512" width="10.44140625" style="15" customWidth="1"/>
+    <col min="10511" max="10511" width="24.5" style="15" customWidth="1"/>
+    <col min="10512" max="10512" width="10.5" style="15" customWidth="1"/>
     <col min="10513" max="10754" width="30.6640625" style="15"/>
-    <col min="10755" max="10755" width="17.5546875" style="15" customWidth="1"/>
+    <col min="10755" max="10755" width="17.5" style="15" customWidth="1"/>
     <col min="10756" max="10756" width="23.33203125" style="15" customWidth="1"/>
     <col min="10757" max="10757" width="18.6640625" style="15" customWidth="1"/>
     <col min="10758" max="10758" width="34.6640625" style="15" customWidth="1"/>
     <col min="10759" max="10759" width="20" style="15" customWidth="1"/>
     <col min="10760" max="10760" width="41.6640625" style="15" customWidth="1"/>
-    <col min="10761" max="10761" width="22.44140625" style="15" customWidth="1"/>
+    <col min="10761" max="10761" width="22.5" style="15" customWidth="1"/>
     <col min="10762" max="10762" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="10763" max="10763" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="10764" max="10764" width="12.33203125" style="15" customWidth="1"/>
-    <col min="10765" max="10765" width="17.109375" style="15" customWidth="1"/>
+    <col min="10765" max="10765" width="17.1640625" style="15" customWidth="1"/>
     <col min="10766" max="10766" width="17.6640625" style="15" customWidth="1"/>
-    <col min="10767" max="10767" width="24.44140625" style="15" customWidth="1"/>
-    <col min="10768" max="10768" width="10.44140625" style="15" customWidth="1"/>
+    <col min="10767" max="10767" width="24.5" style="15" customWidth="1"/>
+    <col min="10768" max="10768" width="10.5" style="15" customWidth="1"/>
     <col min="10769" max="11010" width="30.6640625" style="15"/>
-    <col min="11011" max="11011" width="17.5546875" style="15" customWidth="1"/>
+    <col min="11011" max="11011" width="17.5" style="15" customWidth="1"/>
     <col min="11012" max="11012" width="23.33203125" style="15" customWidth="1"/>
     <col min="11013" max="11013" width="18.6640625" style="15" customWidth="1"/>
     <col min="11014" max="11014" width="34.6640625" style="15" customWidth="1"/>
     <col min="11015" max="11015" width="20" style="15" customWidth="1"/>
     <col min="11016" max="11016" width="41.6640625" style="15" customWidth="1"/>
-    <col min="11017" max="11017" width="22.44140625" style="15" customWidth="1"/>
+    <col min="11017" max="11017" width="22.5" style="15" customWidth="1"/>
     <col min="11018" max="11018" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="11019" max="11019" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="11020" max="11020" width="12.33203125" style="15" customWidth="1"/>
-    <col min="11021" max="11021" width="17.109375" style="15" customWidth="1"/>
+    <col min="11021" max="11021" width="17.1640625" style="15" customWidth="1"/>
     <col min="11022" max="11022" width="17.6640625" style="15" customWidth="1"/>
-    <col min="11023" max="11023" width="24.44140625" style="15" customWidth="1"/>
-    <col min="11024" max="11024" width="10.44140625" style="15" customWidth="1"/>
+    <col min="11023" max="11023" width="24.5" style="15" customWidth="1"/>
+    <col min="11024" max="11024" width="10.5" style="15" customWidth="1"/>
     <col min="11025" max="11266" width="30.6640625" style="15"/>
-    <col min="11267" max="11267" width="17.5546875" style="15" customWidth="1"/>
+    <col min="11267" max="11267" width="17.5" style="15" customWidth="1"/>
     <col min="11268" max="11268" width="23.33203125" style="15" customWidth="1"/>
     <col min="11269" max="11269" width="18.6640625" style="15" customWidth="1"/>
     <col min="11270" max="11270" width="34.6640625" style="15" customWidth="1"/>
     <col min="11271" max="11271" width="20" style="15" customWidth="1"/>
     <col min="11272" max="11272" width="41.6640625" style="15" customWidth="1"/>
-    <col min="11273" max="11273" width="22.44140625" style="15" customWidth="1"/>
+    <col min="11273" max="11273" width="22.5" style="15" customWidth="1"/>
     <col min="11274" max="11274" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="11275" max="11275" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="11276" max="11276" width="12.33203125" style="15" customWidth="1"/>
-    <col min="11277" max="11277" width="17.109375" style="15" customWidth="1"/>
+    <col min="11277" max="11277" width="17.1640625" style="15" customWidth="1"/>
     <col min="11278" max="11278" width="17.6640625" style="15" customWidth="1"/>
-    <col min="11279" max="11279" width="24.44140625" style="15" customWidth="1"/>
-    <col min="11280" max="11280" width="10.44140625" style="15" customWidth="1"/>
+    <col min="11279" max="11279" width="24.5" style="15" customWidth="1"/>
+    <col min="11280" max="11280" width="10.5" style="15" customWidth="1"/>
     <col min="11281" max="11522" width="30.6640625" style="15"/>
-    <col min="11523" max="11523" width="17.5546875" style="15" customWidth="1"/>
+    <col min="11523" max="11523" width="17.5" style="15" customWidth="1"/>
     <col min="11524" max="11524" width="23.33203125" style="15" customWidth="1"/>
     <col min="11525" max="11525" width="18.6640625" style="15" customWidth="1"/>
     <col min="11526" max="11526" width="34.6640625" style="15" customWidth="1"/>
     <col min="11527" max="11527" width="20" style="15" customWidth="1"/>
     <col min="11528" max="11528" width="41.6640625" style="15" customWidth="1"/>
-    <col min="11529" max="11529" width="22.44140625" style="15" customWidth="1"/>
+    <col min="11529" max="11529" width="22.5" style="15" customWidth="1"/>
     <col min="11530" max="11530" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="11531" max="11531" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="11532" max="11532" width="12.33203125" style="15" customWidth="1"/>
-    <col min="11533" max="11533" width="17.109375" style="15" customWidth="1"/>
+    <col min="11533" max="11533" width="17.1640625" style="15" customWidth="1"/>
     <col min="11534" max="11534" width="17.6640625" style="15" customWidth="1"/>
-    <col min="11535" max="11535" width="24.44140625" style="15" customWidth="1"/>
-    <col min="11536" max="11536" width="10.44140625" style="15" customWidth="1"/>
+    <col min="11535" max="11535" width="24.5" style="15" customWidth="1"/>
+    <col min="11536" max="11536" width="10.5" style="15" customWidth="1"/>
     <col min="11537" max="11778" width="30.6640625" style="15"/>
-    <col min="11779" max="11779" width="17.5546875" style="15" customWidth="1"/>
+    <col min="11779" max="11779" width="17.5" style="15" customWidth="1"/>
     <col min="11780" max="11780" width="23.33203125" style="15" customWidth="1"/>
     <col min="11781" max="11781" width="18.6640625" style="15" customWidth="1"/>
     <col min="11782" max="11782" width="34.6640625" style="15" customWidth="1"/>
     <col min="11783" max="11783" width="20" style="15" customWidth="1"/>
     <col min="11784" max="11784" width="41.6640625" style="15" customWidth="1"/>
-    <col min="11785" max="11785" width="22.44140625" style="15" customWidth="1"/>
+    <col min="11785" max="11785" width="22.5" style="15" customWidth="1"/>
     <col min="11786" max="11786" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="11787" max="11787" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="11788" max="11788" width="12.33203125" style="15" customWidth="1"/>
-    <col min="11789" max="11789" width="17.109375" style="15" customWidth="1"/>
+    <col min="11789" max="11789" width="17.1640625" style="15" customWidth="1"/>
     <col min="11790" max="11790" width="17.6640625" style="15" customWidth="1"/>
-    <col min="11791" max="11791" width="24.44140625" style="15" customWidth="1"/>
-    <col min="11792" max="11792" width="10.44140625" style="15" customWidth="1"/>
+    <col min="11791" max="11791" width="24.5" style="15" customWidth="1"/>
+    <col min="11792" max="11792" width="10.5" style="15" customWidth="1"/>
     <col min="11793" max="12034" width="30.6640625" style="15"/>
-    <col min="12035" max="12035" width="17.5546875" style="15" customWidth="1"/>
+    <col min="12035" max="12035" width="17.5" style="15" customWidth="1"/>
     <col min="12036" max="12036" width="23.33203125" style="15" customWidth="1"/>
     <col min="12037" max="12037" width="18.6640625" style="15" customWidth="1"/>
     <col min="12038" max="12038" width="34.6640625" style="15" customWidth="1"/>
     <col min="12039" max="12039" width="20" style="15" customWidth="1"/>
     <col min="12040" max="12040" width="41.6640625" style="15" customWidth="1"/>
-    <col min="12041" max="12041" width="22.44140625" style="15" customWidth="1"/>
+    <col min="12041" max="12041" width="22.5" style="15" customWidth="1"/>
     <col min="12042" max="12042" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="12043" max="12043" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="12044" max="12044" width="12.33203125" style="15" customWidth="1"/>
-    <col min="12045" max="12045" width="17.109375" style="15" customWidth="1"/>
+    <col min="12045" max="12045" width="17.1640625" style="15" customWidth="1"/>
     <col min="12046" max="12046" width="17.6640625" style="15" customWidth="1"/>
-    <col min="12047" max="12047" width="24.44140625" style="15" customWidth="1"/>
-    <col min="12048" max="12048" width="10.44140625" style="15" customWidth="1"/>
+    <col min="12047" max="12047" width="24.5" style="15" customWidth="1"/>
+    <col min="12048" max="12048" width="10.5" style="15" customWidth="1"/>
     <col min="12049" max="12290" width="30.6640625" style="15"/>
-    <col min="12291" max="12291" width="17.5546875" style="15" customWidth="1"/>
+    <col min="12291" max="12291" width="17.5" style="15" customWidth="1"/>
     <col min="12292" max="12292" width="23.33203125" style="15" customWidth="1"/>
     <col min="12293" max="12293" width="18.6640625" style="15" customWidth="1"/>
     <col min="12294" max="12294" width="34.6640625" style="15" customWidth="1"/>
     <col min="12295" max="12295" width="20" style="15" customWidth="1"/>
     <col min="12296" max="12296" width="41.6640625" style="15" customWidth="1"/>
-    <col min="12297" max="12297" width="22.44140625" style="15" customWidth="1"/>
+    <col min="12297" max="12297" width="22.5" style="15" customWidth="1"/>
     <col min="12298" max="12298" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="12299" max="12299" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="12300" max="12300" width="12.33203125" style="15" customWidth="1"/>
-    <col min="12301" max="12301" width="17.109375" style="15" customWidth="1"/>
+    <col min="12301" max="12301" width="17.1640625" style="15" customWidth="1"/>
     <col min="12302" max="12302" width="17.6640625" style="15" customWidth="1"/>
-    <col min="12303" max="12303" width="24.44140625" style="15" customWidth="1"/>
-    <col min="12304" max="12304" width="10.44140625" style="15" customWidth="1"/>
+    <col min="12303" max="12303" width="24.5" style="15" customWidth="1"/>
+    <col min="12304" max="12304" width="10.5" style="15" customWidth="1"/>
     <col min="12305" max="12546" width="30.6640625" style="15"/>
-    <col min="12547" max="12547" width="17.5546875" style="15" customWidth="1"/>
+    <col min="12547" max="12547" width="17.5" style="15" customWidth="1"/>
     <col min="12548" max="12548" width="23.33203125" style="15" customWidth="1"/>
     <col min="12549" max="12549" width="18.6640625" style="15" customWidth="1"/>
     <col min="12550" max="12550" width="34.6640625" style="15" customWidth="1"/>
     <col min="12551" max="12551" width="20" style="15" customWidth="1"/>
     <col min="12552" max="12552" width="41.6640625" style="15" customWidth="1"/>
-    <col min="12553" max="12553" width="22.44140625" style="15" customWidth="1"/>
+    <col min="12553" max="12553" width="22.5" style="15" customWidth="1"/>
     <col min="12554" max="12554" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="12555" max="12555" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="12556" max="12556" width="12.33203125" style="15" customWidth="1"/>
-    <col min="12557" max="12557" width="17.109375" style="15" customWidth="1"/>
+    <col min="12557" max="12557" width="17.1640625" style="15" customWidth="1"/>
     <col min="12558" max="12558" width="17.6640625" style="15" customWidth="1"/>
-    <col min="12559" max="12559" width="24.44140625" style="15" customWidth="1"/>
-    <col min="12560" max="12560" width="10.44140625" style="15" customWidth="1"/>
+    <col min="12559" max="12559" width="24.5" style="15" customWidth="1"/>
+    <col min="12560" max="12560" width="10.5" style="15" customWidth="1"/>
     <col min="12561" max="12802" width="30.6640625" style="15"/>
-    <col min="12803" max="12803" width="17.5546875" style="15" customWidth="1"/>
+    <col min="12803" max="12803" width="17.5" style="15" customWidth="1"/>
     <col min="12804" max="12804" width="23.33203125" style="15" customWidth="1"/>
     <col min="12805" max="12805" width="18.6640625" style="15" customWidth="1"/>
     <col min="12806" max="12806" width="34.6640625" style="15" customWidth="1"/>
     <col min="12807" max="12807" width="20" style="15" customWidth="1"/>
     <col min="12808" max="12808" width="41.6640625" style="15" customWidth="1"/>
-    <col min="12809" max="12809" width="22.44140625" style="15" customWidth="1"/>
+    <col min="12809" max="12809" width="22.5" style="15" customWidth="1"/>
     <col min="12810" max="12810" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="12811" max="12811" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="12812" max="12812" width="12.33203125" style="15" customWidth="1"/>
-    <col min="12813" max="12813" width="17.109375" style="15" customWidth="1"/>
+    <col min="12813" max="12813" width="17.1640625" style="15" customWidth="1"/>
     <col min="12814" max="12814" width="17.6640625" style="15" customWidth="1"/>
-    <col min="12815" max="12815" width="24.44140625" style="15" customWidth="1"/>
-    <col min="12816" max="12816" width="10.44140625" style="15" customWidth="1"/>
+    <col min="12815" max="12815" width="24.5" style="15" customWidth="1"/>
+    <col min="12816" max="12816" width="10.5" style="15" customWidth="1"/>
     <col min="12817" max="13058" width="30.6640625" style="15"/>
-    <col min="13059" max="13059" width="17.5546875" style="15" customWidth="1"/>
+    <col min="13059" max="13059" width="17.5" style="15" customWidth="1"/>
     <col min="13060" max="13060" width="23.33203125" style="15" customWidth="1"/>
     <col min="13061" max="13061" width="18.6640625" style="15" customWidth="1"/>
     <col min="13062" max="13062" width="34.6640625" style="15" customWidth="1"/>
     <col min="13063" max="13063" width="20" style="15" customWidth="1"/>
     <col min="13064" max="13064" width="41.6640625" style="15" customWidth="1"/>
-    <col min="13065" max="13065" width="22.44140625" style="15" customWidth="1"/>
+    <col min="13065" max="13065" width="22.5" style="15" customWidth="1"/>
     <col min="13066" max="13066" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13067" max="13067" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13068" max="13068" width="12.33203125" style="15" customWidth="1"/>
-    <col min="13069" max="13069" width="17.109375" style="15" customWidth="1"/>
+    <col min="13069" max="13069" width="17.1640625" style="15" customWidth="1"/>
     <col min="13070" max="13070" width="17.6640625" style="15" customWidth="1"/>
-    <col min="13071" max="13071" width="24.44140625" style="15" customWidth="1"/>
-    <col min="13072" max="13072" width="10.44140625" style="15" customWidth="1"/>
+    <col min="13071" max="13071" width="24.5" style="15" customWidth="1"/>
+    <col min="13072" max="13072" width="10.5" style="15" customWidth="1"/>
     <col min="13073" max="13314" width="30.6640625" style="15"/>
-    <col min="13315" max="13315" width="17.5546875" style="15" customWidth="1"/>
+    <col min="13315" max="13315" width="17.5" style="15" customWidth="1"/>
     <col min="13316" max="13316" width="23.33203125" style="15" customWidth="1"/>
     <col min="13317" max="13317" width="18.6640625" style="15" customWidth="1"/>
     <col min="13318" max="13318" width="34.6640625" style="15" customWidth="1"/>
     <col min="13319" max="13319" width="20" style="15" customWidth="1"/>
     <col min="13320" max="13320" width="41.6640625" style="15" customWidth="1"/>
-    <col min="13321" max="13321" width="22.44140625" style="15" customWidth="1"/>
+    <col min="13321" max="13321" width="22.5" style="15" customWidth="1"/>
     <col min="13322" max="13322" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13323" max="13323" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13324" max="13324" width="12.33203125" style="15" customWidth="1"/>
-    <col min="13325" max="13325" width="17.109375" style="15" customWidth="1"/>
+    <col min="13325" max="13325" width="17.1640625" style="15" customWidth="1"/>
     <col min="13326" max="13326" width="17.6640625" style="15" customWidth="1"/>
-    <col min="13327" max="13327" width="24.44140625" style="15" customWidth="1"/>
-    <col min="13328" max="13328" width="10.44140625" style="15" customWidth="1"/>
+    <col min="13327" max="13327" width="24.5" style="15" customWidth="1"/>
+    <col min="13328" max="13328" width="10.5" style="15" customWidth="1"/>
     <col min="13329" max="13570" width="30.6640625" style="15"/>
-    <col min="13571" max="13571" width="17.5546875" style="15" customWidth="1"/>
+    <col min="13571" max="13571" width="17.5" style="15" customWidth="1"/>
     <col min="13572" max="13572" width="23.33203125" style="15" customWidth="1"/>
     <col min="13573" max="13573" width="18.6640625" style="15" customWidth="1"/>
     <col min="13574" max="13574" width="34.6640625" style="15" customWidth="1"/>
     <col min="13575" max="13575" width="20" style="15" customWidth="1"/>
     <col min="13576" max="13576" width="41.6640625" style="15" customWidth="1"/>
-    <col min="13577" max="13577" width="22.44140625" style="15" customWidth="1"/>
+    <col min="13577" max="13577" width="22.5" style="15" customWidth="1"/>
     <col min="13578" max="13578" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13579" max="13579" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13580" max="13580" width="12.33203125" style="15" customWidth="1"/>
-    <col min="13581" max="13581" width="17.109375" style="15" customWidth="1"/>
+    <col min="13581" max="13581" width="17.1640625" style="15" customWidth="1"/>
     <col min="13582" max="13582" width="17.6640625" style="15" customWidth="1"/>
-    <col min="13583" max="13583" width="24.44140625" style="15" customWidth="1"/>
-    <col min="13584" max="13584" width="10.44140625" style="15" customWidth="1"/>
+    <col min="13583" max="13583" width="24.5" style="15" customWidth="1"/>
+    <col min="13584" max="13584" width="10.5" style="15" customWidth="1"/>
     <col min="13585" max="13826" width="30.6640625" style="15"/>
-    <col min="13827" max="13827" width="17.5546875" style="15" customWidth="1"/>
+    <col min="13827" max="13827" width="17.5" style="15" customWidth="1"/>
     <col min="13828" max="13828" width="23.33203125" style="15" customWidth="1"/>
     <col min="13829" max="13829" width="18.6640625" style="15" customWidth="1"/>
     <col min="13830" max="13830" width="34.6640625" style="15" customWidth="1"/>
     <col min="13831" max="13831" width="20" style="15" customWidth="1"/>
     <col min="13832" max="13832" width="41.6640625" style="15" customWidth="1"/>
-    <col min="13833" max="13833" width="22.44140625" style="15" customWidth="1"/>
+    <col min="13833" max="13833" width="22.5" style="15" customWidth="1"/>
     <col min="13834" max="13834" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13835" max="13835" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13836" max="13836" width="12.33203125" style="15" customWidth="1"/>
-    <col min="13837" max="13837" width="17.109375" style="15" customWidth="1"/>
+    <col min="13837" max="13837" width="17.1640625" style="15" customWidth="1"/>
     <col min="13838" max="13838" width="17.6640625" style="15" customWidth="1"/>
-    <col min="13839" max="13839" width="24.44140625" style="15" customWidth="1"/>
-    <col min="13840" max="13840" width="10.44140625" style="15" customWidth="1"/>
+    <col min="13839" max="13839" width="24.5" style="15" customWidth="1"/>
+    <col min="13840" max="13840" width="10.5" style="15" customWidth="1"/>
     <col min="13841" max="14082" width="30.6640625" style="15"/>
-    <col min="14083" max="14083" width="17.5546875" style="15" customWidth="1"/>
+    <col min="14083" max="14083" width="17.5" style="15" customWidth="1"/>
     <col min="14084" max="14084" width="23.33203125" style="15" customWidth="1"/>
     <col min="14085" max="14085" width="18.6640625" style="15" customWidth="1"/>
     <col min="14086" max="14086" width="34.6640625" style="15" customWidth="1"/>
     <col min="14087" max="14087" width="20" style="15" customWidth="1"/>
     <col min="14088" max="14088" width="41.6640625" style="15" customWidth="1"/>
-    <col min="14089" max="14089" width="22.44140625" style="15" customWidth="1"/>
+    <col min="14089" max="14089" width="22.5" style="15" customWidth="1"/>
     <col min="14090" max="14090" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14091" max="14091" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14092" max="14092" width="12.33203125" style="15" customWidth="1"/>
-    <col min="14093" max="14093" width="17.109375" style="15" customWidth="1"/>
+    <col min="14093" max="14093" width="17.1640625" style="15" customWidth="1"/>
     <col min="14094" max="14094" width="17.6640625" style="15" customWidth="1"/>
-    <col min="14095" max="14095" width="24.44140625" style="15" customWidth="1"/>
-    <col min="14096" max="14096" width="10.44140625" style="15" customWidth="1"/>
+    <col min="14095" max="14095" width="24.5" style="15" customWidth="1"/>
+    <col min="14096" max="14096" width="10.5" style="15" customWidth="1"/>
     <col min="14097" max="14338" width="30.6640625" style="15"/>
-    <col min="14339" max="14339" width="17.5546875" style="15" customWidth="1"/>
+    <col min="14339" max="14339" width="17.5" style="15" customWidth="1"/>
     <col min="14340" max="14340" width="23.33203125" style="15" customWidth="1"/>
     <col min="14341" max="14341" width="18.6640625" style="15" customWidth="1"/>
     <col min="14342" max="14342" width="34.6640625" style="15" customWidth="1"/>
     <col min="14343" max="14343" width="20" style="15" customWidth="1"/>
     <col min="14344" max="14344" width="41.6640625" style="15" customWidth="1"/>
-    <col min="14345" max="14345" width="22.44140625" style="15" customWidth="1"/>
+    <col min="14345" max="14345" width="22.5" style="15" customWidth="1"/>
     <col min="14346" max="14346" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14347" max="14347" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14348" max="14348" width="12.33203125" style="15" customWidth="1"/>
-    <col min="14349" max="14349" width="17.109375" style="15" customWidth="1"/>
+    <col min="14349" max="14349" width="17.1640625" style="15" customWidth="1"/>
     <col min="14350" max="14350" width="17.6640625" style="15" customWidth="1"/>
-    <col min="14351" max="14351" width="24.44140625" style="15" customWidth="1"/>
-    <col min="14352" max="14352" width="10.44140625" style="15" customWidth="1"/>
+    <col min="14351" max="14351" width="24.5" style="15" customWidth="1"/>
+    <col min="14352" max="14352" width="10.5" style="15" customWidth="1"/>
     <col min="14353" max="14594" width="30.6640625" style="15"/>
-    <col min="14595" max="14595" width="17.5546875" style="15" customWidth="1"/>
+    <col min="14595" max="14595" width="17.5" style="15" customWidth="1"/>
     <col min="14596" max="14596" width="23.33203125" style="15" customWidth="1"/>
     <col min="14597" max="14597" width="18.6640625" style="15" customWidth="1"/>
     <col min="14598" max="14598" width="34.6640625" style="15" customWidth="1"/>
     <col min="14599" max="14599" width="20" style="15" customWidth="1"/>
     <col min="14600" max="14600" width="41.6640625" style="15" customWidth="1"/>
-    <col min="14601" max="14601" width="22.44140625" style="15" customWidth="1"/>
+    <col min="14601" max="14601" width="22.5" style="15" customWidth="1"/>
     <col min="14602" max="14602" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14603" max="14603" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14604" max="14604" width="12.33203125" style="15" customWidth="1"/>
-    <col min="14605" max="14605" width="17.109375" style="15" customWidth="1"/>
+    <col min="14605" max="14605" width="17.1640625" style="15" customWidth="1"/>
     <col min="14606" max="14606" width="17.6640625" style="15" customWidth="1"/>
-    <col min="14607" max="14607" width="24.44140625" style="15" customWidth="1"/>
-    <col min="14608" max="14608" width="10.44140625" style="15" customWidth="1"/>
+    <col min="14607" max="14607" width="24.5" style="15" customWidth="1"/>
+    <col min="14608" max="14608" width="10.5" style="15" customWidth="1"/>
     <col min="14609" max="14850" width="30.6640625" style="15"/>
-    <col min="14851" max="14851" width="17.5546875" style="15" customWidth="1"/>
+    <col min="14851" max="14851" width="17.5" style="15" customWidth="1"/>
     <col min="14852" max="14852" width="23.33203125" style="15" customWidth="1"/>
     <col min="14853" max="14853" width="18.6640625" style="15" customWidth="1"/>
     <col min="14854" max="14854" width="34.6640625" style="15" customWidth="1"/>
     <col min="14855" max="14855" width="20" style="15" customWidth="1"/>
     <col min="14856" max="14856" width="41.6640625" style="15" customWidth="1"/>
-    <col min="14857" max="14857" width="22.44140625" style="15" customWidth="1"/>
+    <col min="14857" max="14857" width="22.5" style="15" customWidth="1"/>
     <col min="14858" max="14858" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14859" max="14859" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14860" max="14860" width="12.33203125" style="15" customWidth="1"/>
-    <col min="14861" max="14861" width="17.109375" style="15" customWidth="1"/>
+    <col min="14861" max="14861" width="17.1640625" style="15" customWidth="1"/>
     <col min="14862" max="14862" width="17.6640625" style="15" customWidth="1"/>
-    <col min="14863" max="14863" width="24.44140625" style="15" customWidth="1"/>
-    <col min="14864" max="14864" width="10.44140625" style="15" customWidth="1"/>
+    <col min="14863" max="14863" width="24.5" style="15" customWidth="1"/>
+    <col min="14864" max="14864" width="10.5" style="15" customWidth="1"/>
     <col min="14865" max="15106" width="30.6640625" style="15"/>
-    <col min="15107" max="15107" width="17.5546875" style="15" customWidth="1"/>
+    <col min="15107" max="15107" width="17.5" style="15" customWidth="1"/>
     <col min="15108" max="15108" width="23.33203125" style="15" customWidth="1"/>
     <col min="15109" max="15109" width="18.6640625" style="15" customWidth="1"/>
     <col min="15110" max="15110" width="34.6640625" style="15" customWidth="1"/>
     <col min="15111" max="15111" width="20" style="15" customWidth="1"/>
     <col min="15112" max="15112" width="41.6640625" style="15" customWidth="1"/>
-    <col min="15113" max="15113" width="22.44140625" style="15" customWidth="1"/>
+    <col min="15113" max="15113" width="22.5" style="15" customWidth="1"/>
     <col min="15114" max="15114" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="15115" max="15115" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="15116" max="15116" width="12.33203125" style="15" customWidth="1"/>
-    <col min="15117" max="15117" width="17.109375" style="15" customWidth="1"/>
+    <col min="15117" max="15117" width="17.1640625" style="15" customWidth="1"/>
     <col min="15118" max="15118" width="17.6640625" style="15" customWidth="1"/>
-    <col min="15119" max="15119" width="24.44140625" style="15" customWidth="1"/>
-    <col min="15120" max="15120" width="10.44140625" style="15" customWidth="1"/>
+    <col min="15119" max="15119" width="24.5" style="15" customWidth="1"/>
+    <col min="15120" max="15120" width="10.5" style="15" customWidth="1"/>
     <col min="15121" max="15362" width="30.6640625" style="15"/>
-    <col min="15363" max="15363" width="17.5546875" style="15" customWidth="1"/>
+    <col min="15363" max="15363" width="17.5" style="15" customWidth="1"/>
     <col min="15364" max="15364" width="23.33203125" style="15" customWidth="1"/>
     <col min="15365" max="15365" width="18.6640625" style="15" customWidth="1"/>
     <col min="15366" max="15366" width="34.6640625" style="15" customWidth="1"/>
     <col min="15367" max="15367" width="20" style="15" customWidth="1"/>
     <col min="15368" max="15368" width="41.6640625" style="15" customWidth="1"/>
-    <col min="15369" max="15369" width="22.44140625" style="15" customWidth="1"/>
+    <col min="15369" max="15369" width="22.5" style="15" customWidth="1"/>
     <col min="15370" max="15370" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="15371" max="15371" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="15372" max="15372" width="12.33203125" style="15" customWidth="1"/>
-    <col min="15373" max="15373" width="17.109375" style="15" customWidth="1"/>
+    <col min="15373" max="15373" width="17.1640625" style="15" customWidth="1"/>
     <col min="15374" max="15374" width="17.6640625" style="15" customWidth="1"/>
-    <col min="15375" max="15375" width="24.44140625" style="15" customWidth="1"/>
-    <col min="15376" max="15376" width="10.44140625" style="15" customWidth="1"/>
+    <col min="15375" max="15375" width="24.5" style="15" customWidth="1"/>
+    <col min="15376" max="15376" width="10.5" style="15" customWidth="1"/>
     <col min="15377" max="15618" width="30.6640625" style="15"/>
-    <col min="15619" max="15619" width="17.5546875" style="15" customWidth="1"/>
+    <col min="15619" max="15619" width="17.5" style="15" customWidth="1"/>
     <col min="15620" max="15620" width="23.33203125" style="15" customWidth="1"/>
     <col min="15621" max="15621" width="18.6640625" style="15" customWidth="1"/>
     <col min="15622" max="15622" width="34.6640625" style="15" customWidth="1"/>
     <col min="15623" max="15623" width="20" style="15" customWidth="1"/>
     <col min="15624" max="15624" width="41.6640625" style="15" customWidth="1"/>
-    <col min="15625" max="15625" width="22.44140625" style="15" customWidth="1"/>
+    <col min="15625" max="15625" width="22.5" style="15" customWidth="1"/>
     <col min="15626" max="15626" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="15627" max="15627" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="15628" max="15628" width="12.33203125" style="15" customWidth="1"/>
-    <col min="15629" max="15629" width="17.109375" style="15" customWidth="1"/>
+    <col min="15629" max="15629" width="17.1640625" style="15" customWidth="1"/>
     <col min="15630" max="15630" width="17.6640625" style="15" customWidth="1"/>
-    <col min="15631" max="15631" width="24.44140625" style="15" customWidth="1"/>
-    <col min="15632" max="15632" width="10.44140625" style="15" customWidth="1"/>
+    <col min="15631" max="15631" width="24.5" style="15" customWidth="1"/>
+    <col min="15632" max="15632" width="10.5" style="15" customWidth="1"/>
     <col min="15633" max="15874" width="30.6640625" style="15"/>
-    <col min="15875" max="15875" width="17.5546875" style="15" customWidth="1"/>
+    <col min="15875" max="15875" width="17.5" style="15" customWidth="1"/>
     <col min="15876" max="15876" width="23.33203125" style="15" customWidth="1"/>
     <col min="15877" max="15877" width="18.6640625" style="15" customWidth="1"/>
     <col min="15878" max="15878" width="34.6640625" style="15" customWidth="1"/>
     <col min="15879" max="15879" width="20" style="15" customWidth="1"/>
     <col min="15880" max="15880" width="41.6640625" style="15" customWidth="1"/>
-    <col min="15881" max="15881" width="22.44140625" style="15" customWidth="1"/>
+    <col min="15881" max="15881" width="22.5" style="15" customWidth="1"/>
     <col min="15882" max="15882" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="15883" max="15883" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="15884" max="15884" width="12.33203125" style="15" customWidth="1"/>
-    <col min="15885" max="15885" width="17.109375" style="15" customWidth="1"/>
+    <col min="15885" max="15885" width="17.1640625" style="15" customWidth="1"/>
     <col min="15886" max="15886" width="17.6640625" style="15" customWidth="1"/>
-    <col min="15887" max="15887" width="24.44140625" style="15" customWidth="1"/>
-    <col min="15888" max="15888" width="10.44140625" style="15" customWidth="1"/>
+    <col min="15887" max="15887" width="24.5" style="15" customWidth="1"/>
+    <col min="15888" max="15888" width="10.5" style="15" customWidth="1"/>
     <col min="15889" max="16130" width="30.6640625" style="15"/>
-    <col min="16131" max="16131" width="17.5546875" style="15" customWidth="1"/>
+    <col min="16131" max="16131" width="17.5" style="15" customWidth="1"/>
     <col min="16132" max="16132" width="23.33203125" style="15" customWidth="1"/>
     <col min="16133" max="16133" width="18.6640625" style="15" customWidth="1"/>
     <col min="16134" max="16134" width="34.6640625" style="15" customWidth="1"/>
     <col min="16135" max="16135" width="20" style="15" customWidth="1"/>
     <col min="16136" max="16136" width="41.6640625" style="15" customWidth="1"/>
-    <col min="16137" max="16137" width="22.44140625" style="15" customWidth="1"/>
+    <col min="16137" max="16137" width="22.5" style="15" customWidth="1"/>
     <col min="16138" max="16138" width="25.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="16139" max="16139" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="16140" max="16140" width="12.33203125" style="15" customWidth="1"/>
-    <col min="16141" max="16141" width="17.109375" style="15" customWidth="1"/>
+    <col min="16141" max="16141" width="17.1640625" style="15" customWidth="1"/>
     <col min="16142" max="16142" width="17.6640625" style="15" customWidth="1"/>
-    <col min="16143" max="16143" width="24.44140625" style="15" customWidth="1"/>
-    <col min="16144" max="16144" width="10.44140625" style="15" customWidth="1"/>
+    <col min="16143" max="16143" width="24.5" style="15" customWidth="1"/>
+    <col min="16144" max="16144" width="10.5" style="15" customWidth="1"/>
     <col min="16145" max="16384" width="30.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-    </row>
-    <row r="2" spans="1:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+    </row>
+    <row r="2" spans="1:17" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:17" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+    </row>
+    <row r="3" spans="1:17" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-    </row>
-    <row r="4" spans="1:17" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+    </row>
+    <row r="4" spans="1:17" ht="51.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:17" s="7" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-    </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -4144,7 +4441,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -4163,7 +4460,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -4181,7 +4478,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -4200,7 +4497,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -4218,7 +4515,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -4236,7 +4533,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -4254,7 +4551,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -4272,7 +4569,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -4290,7 +4587,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -4308,7 +4605,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -4326,7 +4623,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -4344,7 +4641,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -4362,7 +4659,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -4380,7 +4677,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -4398,7 +4695,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -4416,7 +4713,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -4434,7 +4731,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -4452,7 +4749,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -4470,7 +4767,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -4488,7 +4785,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -4506,7 +4803,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -4524,7 +4821,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -4542,7 +4839,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -4560,7 +4857,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -4578,7 +4875,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -4596,7 +4893,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -4614,7 +4911,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -4632,7 +4929,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -4650,7 +4947,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -4668,7 +4965,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -4686,7 +4983,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -4704,7 +5001,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -4722,7 +5019,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -4740,7 +5037,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -4758,7 +5055,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -4776,7 +5073,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -4794,7 +5091,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -4812,7 +5109,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -4830,7 +5127,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -4848,7 +5145,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -4866,7 +5163,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -4884,7 +5181,7 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -4902,7 +5199,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -4920,7 +5217,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -4938,7 +5235,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -4956,7 +5253,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -4974,7 +5271,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -4992,7 +5289,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -5010,7 +5307,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -5028,7 +5325,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -5046,7 +5343,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -5064,7 +5361,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -5082,7 +5379,7 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
     </row>
-    <row r="59" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -5100,7 +5397,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
     </row>
-    <row r="60" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -5118,7 +5415,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
     </row>
-    <row r="61" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="12"/>
@@ -5136,7 +5433,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
     </row>
-    <row r="62" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -5154,7 +5451,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
     </row>
-    <row r="63" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
@@ -5172,7 +5469,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
     </row>
-    <row r="64" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -5190,7 +5487,7 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
     </row>
-    <row r="65" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -5208,7 +5505,7 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
     </row>
-    <row r="66" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -5226,7 +5523,7 @@
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
     </row>
-    <row r="67" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -5244,7 +5541,7 @@
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
     </row>
-    <row r="68" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
@@ -5262,7 +5559,7 @@
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
     </row>
-    <row r="69" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -5280,7 +5577,7 @@
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
     </row>
-    <row r="70" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -5298,7 +5595,7 @@
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
     </row>
-    <row r="71" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -5316,7 +5613,7 @@
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
     </row>
-    <row r="72" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -5334,7 +5631,7 @@
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
     </row>
-    <row r="73" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -5352,7 +5649,7 @@
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
     </row>
-    <row r="74" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -5370,7 +5667,7 @@
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
     </row>
-    <row r="75" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -5388,7 +5685,7 @@
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
     </row>
-    <row r="76" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -5406,7 +5703,7 @@
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
     </row>
-    <row r="77" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -5424,7 +5721,7 @@
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
     </row>
-    <row r="78" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -5442,7 +5739,7 @@
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
     </row>
-    <row r="79" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -5460,7 +5757,7 @@
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
     </row>
-    <row r="80" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -5478,7 +5775,7 @@
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
     </row>
-    <row r="81" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -5496,7 +5793,7 @@
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
     </row>
-    <row r="82" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -5514,7 +5811,7 @@
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
     </row>
-    <row r="83" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -5532,7 +5829,7 @@
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
     </row>
-    <row r="84" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -5550,7 +5847,7 @@
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
     </row>
-    <row r="85" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -5568,7 +5865,7 @@
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
     </row>
-    <row r="86" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -5586,7 +5883,7 @@
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
     </row>
-    <row r="87" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -5604,7 +5901,7 @@
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
     </row>
-    <row r="88" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -5622,7 +5919,7 @@
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
     </row>
-    <row r="89" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -5640,7 +5937,7 @@
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
     </row>
-    <row r="90" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -5658,7 +5955,7 @@
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
     </row>
-    <row r="91" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -5676,7 +5973,7 @@
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
     </row>
-    <row r="92" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -5694,7 +5991,7 @@
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
@@ -5710,202 +6007,202 @@
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
     </row>
-    <row r="94" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="Q94" s="15"/>
     </row>
-    <row r="95" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="Q95" s="15"/>
     </row>
-    <row r="96" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="Q96" s="15"/>
     </row>
-    <row r="97" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="Q97" s="15"/>
     </row>
-    <row r="98" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="Q98" s="15"/>
     </row>
-    <row r="99" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="Q101" s="15"/>
     </row>
-    <row r="102" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="Q102" s="15"/>
     </row>
-    <row r="103" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="Q103" s="15"/>
     </row>
-    <row r="104" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="Q104" s="15"/>
     </row>
-    <row r="105" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="Q105" s="15"/>
     </row>
-    <row r="106" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="Q106" s="15"/>
     </row>
-    <row r="107" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="Q107" s="15"/>
     </row>
-    <row r="108" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="Q108" s="15"/>
     </row>
-    <row r="109" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="Q109" s="15"/>
     </row>
-    <row r="110" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="Q110" s="15"/>
     </row>
-    <row r="111" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="Q111" s="15"/>
     </row>
-    <row r="112" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="Q112" s="15"/>
     </row>
-    <row r="113" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="Q113" s="15"/>
     </row>
-    <row r="114" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="Q114" s="15"/>
     </row>
-    <row r="115" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="Q115" s="15"/>
     </row>
-    <row r="116" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="Q116" s="15"/>
     </row>
-    <row r="117" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="Q117" s="15"/>
     </row>
-    <row r="118" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="Q118" s="15"/>
     </row>
-    <row r="119" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="Q119" s="15"/>
     </row>
-    <row r="120" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="Q120" s="15"/>
     </row>
-    <row r="121" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="Q121" s="15"/>
     </row>
-    <row r="122" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="Q122" s="15"/>
     </row>
-    <row r="123" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13"/>
       <c r="B123" s="13"/>
       <c r="Q123" s="15"/>
     </row>
-    <row r="124" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="Q124" s="15"/>
     </row>
-    <row r="125" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="Q125" s="15"/>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="G132" s="16"/>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="G140" s="16"/>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
       <c r="G179" s="16"/>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
       <c r="G265" s="16"/>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C289" s="16"/>
       <c r="D289" s="16"/>
       <c r="G289" s="16"/>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C335" s="16"/>
       <c r="D335" s="16"/>
       <c r="G335" s="16"/>
     </row>
-    <row r="630" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" s="13"/>
       <c r="B630" s="13"/>
       <c r="C630" s="17"/>
@@ -5924,7 +6221,7 @@
       <c r="P630" s="15"/>
       <c r="Q630" s="15"/>
     </row>
-    <row r="676" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C676" s="16"/>
       <c r="D676" s="16"/>
       <c r="G676" s="16"/>
@@ -5943,33 +6240,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0185A285-0817-423F-A5C5-5D81E6664F37}">
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="86.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="89" t="s">
+    <row r="1" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -5980,155 +6277,155 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="34"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="35"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="36"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="35"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="45"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="45"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="45"/>
-    </row>
-    <row r="22" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B22" s="47" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="33"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="35"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="34"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="44"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="44"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="B22" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B23" s="50" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="2:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="B23" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="82" t="s">
+    <row r="24" spans="2:8" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="2:8" s="3" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="83"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-    </row>
-    <row r="26" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-    </row>
-    <row r="27" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="83"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="82" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="2:8" s="3" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="82"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="82"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="82"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="66"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="2:8" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-    </row>
-    <row r="30" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="83"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-    </row>
-    <row r="31" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="83"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="83"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="82"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="82"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="82"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6139,7 +6436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850D18A-53B2-4F92-BB8A-1277E8613579}">
   <dimension ref="B1:G27"/>
   <sheetViews>
@@ -6147,243 +6444,243 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="55.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C1" s="43"/>
-      <c r="D1" s="70" t="s">
+    <row r="1" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="C1" s="42"/>
+      <c r="D1" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-    </row>
-    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="2:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="42"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="C3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="B4" s="74" t="s">
+    <row r="4" spans="2:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="B4" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="80"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="80"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="81"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="80"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="80"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="80"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="80"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="80"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="79"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="79"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="79"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6395,12 +6692,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6627,15 +6921,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41A48CC-D3A2-49FB-BCE4-A69AB6980DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5600034E-0E56-40A3-9EA9-1E7641B2BF85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6660,10 +6958,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5600034E-0E56-40A3-9EA9-1E7641B2BF85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41A48CC-D3A2-49FB-BCE4-A69AB6980DE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>